--- a/3 Statistics/Statistics - 4. Percentiles.xlsx
+++ b/3 Statistics/Statistics - 4. Percentiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5. Statistics\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/3 Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5980F10B-46FA-4486-A9CE-DEF74784A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{5980F10B-46FA-4486-A9CE-DEF74784A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{080D02A1-158A-4055-93D0-6AB71D7F340B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="108">
   <si>
     <t>Order ID</t>
   </si>
@@ -366,6 +388,9 @@
   <si>
     <t>Amount</t>
   </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,6 +487,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -469,7 +505,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,6 +548,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1696,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DD142D-3061-4CE9-9EE6-7A662BB8F9AE}">
-  <dimension ref="A1:R710"/>
+  <dimension ref="A1:U710"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1720,9 +1760,10 @@
     <col min="15" max="15" width="10.58203125" customWidth="1"/>
     <col min="17" max="17" width="25.58203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="21" max="21" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1794,9 +1835,12 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L2" s="21">
+        <f>_xlfn.PERCENTRANK.EXC($G$2:$G$710, G2)</f>
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1830,7 +1874,10 @@
       <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="21">
+        <f t="shared" ref="L3:L66" si="0">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G3)</f>
+        <v>0.42099999999999999</v>
+      </c>
       <c r="O3" s="15" t="s">
         <v>100</v>
       </c>
@@ -1838,7 +1885,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -1872,7 +1919,10 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.80900000000000005</v>
+      </c>
       <c r="N4" s="15" t="s">
         <v>8</v>
       </c>
@@ -1885,8 +1935,15 @@
       <c r="R4" s="14">
         <v>106765.37094499294</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="14">
+        <f>MEDIAN(G:G)</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -1920,7 +1977,10 @@
       <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.54700000000000004</v>
+      </c>
       <c r="N5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1994,7 @@
         <v>2409599184.2982192</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1968,7 +2028,10 @@
       <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.504</v>
+      </c>
       <c r="N6" s="15" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +2045,7 @@
         <v>49087.66835263434</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -2016,9 +2079,12 @@
       <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -2052,10 +2118,13 @@
       <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.42099999999999999</v>
+      </c>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -2089,7 +2158,10 @@
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97099999999999997</v>
+      </c>
       <c r="O9" s="15" t="s">
         <v>100</v>
       </c>
@@ -2097,7 +2169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2131,7 +2203,10 @@
       <c r="K10" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
       <c r="N10" s="15" t="s">
         <v>99</v>
       </c>
@@ -2145,7 +2220,7 @@
         <v>106765.37094499294</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -2179,7 +2254,10 @@
       <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.79400000000000004</v>
+      </c>
       <c r="N11" s="15" t="s">
         <v>98</v>
       </c>
@@ -2193,7 +2271,7 @@
         <v>2409599184.2982249</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -2227,7 +2305,10 @@
       <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.19400000000000001</v>
+      </c>
       <c r="Q12" s="15" t="s">
         <v>104</v>
       </c>
@@ -2235,7 +2316,7 @@
         <v>49087.668352634399</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -2269,10 +2350,13 @@
       <c r="K13" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.85899999999999999</v>
+      </c>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2023</v>
       </c>
@@ -2306,7 +2390,10 @@
       <c r="K14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76700000000000002</v>
+      </c>
       <c r="N14" s="15" t="s">
         <v>97</v>
       </c>
@@ -2315,7 +2402,7 @@
       </c>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2349,7 +2436,10 @@
       <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
       <c r="N15">
         <v>100000</v>
       </c>
@@ -2360,7 +2450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -2394,7 +2484,10 @@
       <c r="K16" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="21">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
       <c r="N16">
         <v>200000</v>
       </c>
@@ -2442,7 +2535,10 @@
       <c r="K17" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97299999999999998</v>
+      </c>
       <c r="N17">
         <v>300000</v>
       </c>
@@ -2490,7 +2586,10 @@
       <c r="K18" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76100000000000001</v>
+      </c>
       <c r="N18">
         <v>400000</v>
       </c>
@@ -2532,7 +2631,10 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49099999999999999</v>
+      </c>
       <c r="N19">
         <v>500000</v>
       </c>
@@ -2574,7 +2676,10 @@
       <c r="K20" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="21">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -2613,7 +2718,10 @@
       <c r="K21" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -2649,13 +2757,19 @@
       <c r="K22" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="N22" s="17" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>106</v>
       </c>
+      <c r="P22" s="17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -2691,9 +2805,21 @@
       <c r="K23" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="L23" s="21">
+        <f t="shared" si="0"/>
+        <v>0.502</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="16">
+        <f>_xlfn.PERCENTILE.INC($G$2:$G$710, N23)</f>
+        <v>50000</v>
+      </c>
+      <c r="P23" cm="1">
+        <f t="array" ref="P23:P28">FREQUENCY(G:G, O23:O27)</f>
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -2729,9 +2855,20 @@
       <c r="K24" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="L24" s="21">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" ref="O24:O27" si="1">_xlfn.PERCENTILE.INC($G$2:$G$710, N24)</f>
+        <v>75000</v>
+      </c>
+      <c r="P24">
+        <v>111</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2767,9 +2904,20 @@
       <c r="K25" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="L25" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="P25">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -2805,9 +2953,20 @@
       <c r="K26" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="L26" s="21">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="1"/>
+        <v>135000</v>
+      </c>
+      <c r="P26">
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -2843,9 +3002,20 @@
       <c r="K27" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="L27" s="21">
+        <f t="shared" si="0"/>
+        <v>0.318</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="O27" s="16">
+        <f>_xlfn.PERCENTILE.INC($G$2:$G$710, N27)</f>
+        <v>167280.00000000006</v>
+      </c>
+      <c r="P27">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -2881,7 +3051,20 @@
       <c r="K28" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N28" s="19">
+        <v>1</v>
+      </c>
+      <c r="O28" s="20">
+        <f>_xlfn.PERCENTILE.INC($G$2:$G$710, N28)</f>
+        <v>430967</v>
+      </c>
+      <c r="P28">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -2917,7 +3100,10 @@
       <c r="K29" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -2953,7 +3139,10 @@
       <c r="K30" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -2989,7 +3178,10 @@
       <c r="K31" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -3025,7 +3217,10 @@
       <c r="K32" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -3061,7 +3256,10 @@
       <c r="K33" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="21">
+        <f t="shared" si="0"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -3097,7 +3295,10 @@
       <c r="K34" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="21">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -3133,7 +3334,10 @@
       <c r="K35" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="16"/>
+      <c r="L35" s="21">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -3169,7 +3373,10 @@
       <c r="K36" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="16"/>
+      <c r="L36" s="21">
+        <f t="shared" si="0"/>
+        <v>0.50700000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -3205,7 +3412,10 @@
       <c r="K37" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="21">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -3241,7 +3451,10 @@
       <c r="K38" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="16"/>
+      <c r="L38" s="21">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -3277,7 +3490,10 @@
       <c r="K39" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -3313,7 +3529,10 @@
       <c r="K40" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="16"/>
+      <c r="L40" s="21">
+        <f t="shared" si="0"/>
+        <v>0.80400000000000005</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -3349,7 +3568,10 @@
       <c r="K41" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="16"/>
+      <c r="L41" s="21">
+        <f t="shared" si="0"/>
+        <v>0.80800000000000005</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -3385,7 +3607,10 @@
       <c r="K42" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="16"/>
+      <c r="L42" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69699999999999995</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -3421,7 +3646,10 @@
       <c r="K43" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95899999999999996</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -3457,7 +3685,10 @@
       <c r="K44" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69799999999999995</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -3493,7 +3724,10 @@
       <c r="K45" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="16"/>
+      <c r="L45" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78500000000000003</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -3529,7 +3763,10 @@
       <c r="K46" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="16"/>
+      <c r="L46" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -3565,7 +3802,10 @@
       <c r="K47" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="16"/>
+      <c r="L47" s="21">
+        <f t="shared" si="0"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -3601,7 +3841,10 @@
       <c r="K48" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="16"/>
+      <c r="L48" s="21">
+        <f t="shared" si="0"/>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
@@ -3637,7 +3880,10 @@
       <c r="K49" t="s">
         <v>30</v>
       </c>
-      <c r="L49" s="16"/>
+      <c r="L49" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76400000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
@@ -3673,7 +3919,10 @@
       <c r="K50" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="16"/>
+      <c r="L50" s="21">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
@@ -3709,7 +3958,10 @@
       <c r="K51" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="16"/>
+      <c r="L51" s="21">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
@@ -3745,7 +3997,10 @@
       <c r="K52" t="s">
         <v>30</v>
       </c>
-      <c r="L52" s="16"/>
+      <c r="L52" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
@@ -3781,7 +4036,10 @@
       <c r="K53" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="16"/>
+      <c r="L53" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
@@ -3817,7 +4075,10 @@
       <c r="K54" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="16"/>
+      <c r="L54" s="21">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
@@ -3853,7 +4114,10 @@
       <c r="K55" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="16"/>
+      <c r="L55" s="21">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
@@ -3889,7 +4153,10 @@
       <c r="K56" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="16"/>
+      <c r="L56" s="21">
+        <f t="shared" si="0"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
@@ -3925,7 +4192,10 @@
       <c r="K57" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="16"/>
+      <c r="L57" s="21">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
@@ -3961,7 +4231,10 @@
       <c r="K58" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="16"/>
+      <c r="L58" s="21">
+        <f t="shared" si="0"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
@@ -3997,7 +4270,10 @@
       <c r="K59" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
@@ -4033,7 +4309,10 @@
       <c r="K60" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="21">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
@@ -4069,7 +4348,10 @@
       <c r="K61" t="s">
         <v>30</v>
       </c>
-      <c r="L61" s="16"/>
+      <c r="L61" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
@@ -4105,7 +4387,10 @@
       <c r="K62" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="21">
+        <f t="shared" si="0"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -4141,7 +4426,10 @@
       <c r="K63" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="21">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -4177,7 +4465,10 @@
       <c r="K64" t="s">
         <v>35</v>
       </c>
-      <c r="L64" s="16"/>
+      <c r="L64" s="21">
+        <f t="shared" si="0"/>
+        <v>0.20799999999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
@@ -4213,7 +4504,10 @@
       <c r="K65" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="16"/>
+      <c r="L65" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
@@ -4249,7 +4543,10 @@
       <c r="K66" t="s">
         <v>30</v>
       </c>
-      <c r="L66" s="16"/>
+      <c r="L66" s="21">
+        <f t="shared" si="0"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
@@ -4285,7 +4582,10 @@
       <c r="K67" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="16"/>
+      <c r="L67" s="21">
+        <f t="shared" ref="L67:L130" si="2">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G67)</f>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
@@ -4321,7 +4621,10 @@
       <c r="K68" t="s">
         <v>30</v>
       </c>
-      <c r="L68" s="16"/>
+      <c r="L68" s="21">
+        <f t="shared" si="2"/>
+        <v>0.50700000000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
@@ -4357,7 +4660,10 @@
       <c r="K69" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="16"/>
+      <c r="L69" s="21">
+        <f t="shared" si="2"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
@@ -4393,7 +4699,10 @@
       <c r="K70" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="16"/>
+      <c r="L70" s="21">
+        <f t="shared" si="2"/>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
@@ -4429,7 +4738,10 @@
       <c r="K71" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="21">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
@@ -4465,7 +4777,10 @@
       <c r="K72" t="s">
         <v>30</v>
       </c>
-      <c r="L72" s="16"/>
+      <c r="L72" s="21">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
@@ -4501,7 +4816,10 @@
       <c r="K73" t="s">
         <v>30</v>
       </c>
-      <c r="L73" s="16"/>
+      <c r="L73" s="21">
+        <f t="shared" si="2"/>
+        <v>0.98399999999999999</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
@@ -4537,7 +4855,10 @@
       <c r="K74" t="s">
         <v>30</v>
       </c>
-      <c r="L74" s="16"/>
+      <c r="L74" s="21">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
@@ -4573,7 +4894,10 @@
       <c r="K75" t="s">
         <v>30</v>
       </c>
-      <c r="L75" s="16"/>
+      <c r="L75" s="21">
+        <f t="shared" si="2"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
@@ -4609,7 +4933,10 @@
       <c r="K76" t="s">
         <v>30</v>
       </c>
-      <c r="L76" s="16"/>
+      <c r="L76" s="21">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
@@ -4645,7 +4972,10 @@
       <c r="K77" t="s">
         <v>30</v>
       </c>
-      <c r="L77" s="16"/>
+      <c r="L77" s="21">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
@@ -4681,7 +5011,10 @@
       <c r="K78" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="16"/>
+      <c r="L78" s="21">
+        <f t="shared" si="2"/>
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
@@ -4717,7 +5050,10 @@
       <c r="K79" t="s">
         <v>30</v>
       </c>
-      <c r="L79" s="16"/>
+      <c r="L79" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23200000000000001</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
@@ -4753,7 +5089,10 @@
       <c r="K80" t="s">
         <v>30</v>
       </c>
-      <c r="L80" s="16"/>
+      <c r="L80" s="21">
+        <f t="shared" si="2"/>
+        <v>0.13300000000000001</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
@@ -4789,7 +5128,10 @@
       <c r="K81" t="s">
         <v>30</v>
       </c>
-      <c r="L81" s="16"/>
+      <c r="L81" s="21">
+        <f t="shared" si="2"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
@@ -4825,7 +5167,10 @@
       <c r="K82" t="s">
         <v>30</v>
       </c>
-      <c r="L82" s="16"/>
+      <c r="L82" s="21">
+        <f t="shared" si="2"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
@@ -4861,7 +5206,10 @@
       <c r="K83" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="16"/>
+      <c r="L83" s="21">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -4897,7 +5245,10 @@
       <c r="K84" t="s">
         <v>30</v>
       </c>
-      <c r="L84" s="16"/>
+      <c r="L84" s="21">
+        <f t="shared" si="2"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
@@ -4933,7 +5284,10 @@
       <c r="K85" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="16"/>
+      <c r="L85" s="21">
+        <f t="shared" si="2"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
@@ -4969,7 +5323,10 @@
       <c r="K86" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="16"/>
+      <c r="L86" s="21">
+        <f t="shared" si="2"/>
+        <v>0.80500000000000005</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
@@ -5005,7 +5362,10 @@
       <c r="K87" t="s">
         <v>30</v>
       </c>
-      <c r="L87" s="16"/>
+      <c r="L87" s="21">
+        <f t="shared" si="2"/>
+        <v>0.68500000000000005</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
@@ -5041,7 +5401,10 @@
       <c r="K88" t="s">
         <v>30</v>
       </c>
-      <c r="L88" s="16"/>
+      <c r="L88" s="21">
+        <f t="shared" si="2"/>
+        <v>0.95199999999999996</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
@@ -5077,7 +5440,10 @@
       <c r="K89" t="s">
         <v>30</v>
       </c>
-      <c r="L89" s="16"/>
+      <c r="L89" s="21">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
@@ -5113,7 +5479,10 @@
       <c r="K90" t="s">
         <v>30</v>
       </c>
-      <c r="L90" s="16"/>
+      <c r="L90" s="21">
+        <f t="shared" si="2"/>
+        <v>0.98299999999999998</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
@@ -5149,7 +5518,10 @@
       <c r="K91" t="s">
         <v>30</v>
       </c>
-      <c r="L91" s="16"/>
+      <c r="L91" s="21">
+        <f t="shared" si="2"/>
+        <v>0.70099999999999996</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
@@ -5185,7 +5557,10 @@
       <c r="K92" t="s">
         <v>30</v>
       </c>
-      <c r="L92" s="16"/>
+      <c r="L92" s="21">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
@@ -5221,7 +5596,10 @@
       <c r="K93" t="s">
         <v>30</v>
       </c>
-      <c r="L93" s="16"/>
+      <c r="L93" s="21">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
@@ -5257,7 +5635,10 @@
       <c r="K94" t="s">
         <v>30</v>
       </c>
-      <c r="L94" s="16"/>
+      <c r="L94" s="21">
+        <f t="shared" si="2"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
@@ -5293,7 +5674,10 @@
       <c r="K95" t="s">
         <v>30</v>
       </c>
-      <c r="L95" s="16"/>
+      <c r="L95" s="21">
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
@@ -5329,7 +5713,10 @@
       <c r="K96" t="s">
         <v>30</v>
       </c>
-      <c r="L96" s="16"/>
+      <c r="L96" s="21">
+        <f t="shared" si="2"/>
+        <v>0.69799999999999995</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
@@ -5365,7 +5752,10 @@
       <c r="K97" t="s">
         <v>30</v>
       </c>
-      <c r="L97" s="16"/>
+      <c r="L97" s="21">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
@@ -5401,7 +5791,10 @@
       <c r="K98" t="s">
         <v>30</v>
       </c>
-      <c r="L98" s="16"/>
+      <c r="L98" s="21">
+        <f t="shared" si="2"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
@@ -5437,7 +5830,10 @@
       <c r="K99" t="s">
         <v>30</v>
       </c>
-      <c r="L99" s="16"/>
+      <c r="L99" s="21">
+        <f t="shared" si="2"/>
+        <v>0.50700000000000001</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
@@ -5473,7 +5869,10 @@
       <c r="K100" t="s">
         <v>30</v>
       </c>
-      <c r="L100" s="16"/>
+      <c r="L100" s="21">
+        <f t="shared" si="2"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
@@ -5509,7 +5908,10 @@
       <c r="K101" t="s">
         <v>30</v>
       </c>
-      <c r="L101" s="16"/>
+      <c r="L101" s="21">
+        <f t="shared" si="2"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
@@ -5545,7 +5947,10 @@
       <c r="K102" t="s">
         <v>30</v>
       </c>
-      <c r="L102" s="16"/>
+      <c r="L102" s="21">
+        <f t="shared" si="2"/>
+        <v>0.85599999999999998</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
@@ -5581,7 +5986,10 @@
       <c r="K103" t="s">
         <v>30</v>
       </c>
-      <c r="L103" s="16"/>
+      <c r="L103" s="21">
+        <f t="shared" si="2"/>
+        <v>0.78800000000000003</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
@@ -5617,7 +6025,10 @@
       <c r="K104" t="s">
         <v>30</v>
       </c>
-      <c r="L104" s="16"/>
+      <c r="L104" s="21">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
@@ -5653,7 +6064,10 @@
       <c r="K105" t="s">
         <v>30</v>
       </c>
-      <c r="L105" s="16"/>
+      <c r="L105" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
@@ -5689,7 +6103,10 @@
       <c r="K106" t="s">
         <v>30</v>
       </c>
-      <c r="L106" s="16"/>
+      <c r="L106" s="21">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
@@ -5725,7 +6142,10 @@
       <c r="K107" t="s">
         <v>30</v>
       </c>
-      <c r="L107" s="16"/>
+      <c r="L107" s="21">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
@@ -5761,7 +6181,10 @@
       <c r="K108" t="s">
         <v>30</v>
       </c>
-      <c r="L108" s="16"/>
+      <c r="L108" s="21">
+        <f t="shared" si="2"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
@@ -5797,7 +6220,10 @@
       <c r="K109" t="s">
         <v>30</v>
       </c>
-      <c r="L109" s="16"/>
+      <c r="L109" s="21">
+        <f t="shared" si="2"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
@@ -5833,7 +6259,10 @@
       <c r="K110" t="s">
         <v>30</v>
       </c>
-      <c r="L110" s="16"/>
+      <c r="L110" s="21">
+        <f t="shared" si="2"/>
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
@@ -5869,7 +6298,10 @@
       <c r="K111" t="s">
         <v>30</v>
       </c>
-      <c r="L111" s="16"/>
+      <c r="L111" s="21">
+        <f t="shared" si="2"/>
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
@@ -5905,7 +6337,10 @@
       <c r="K112" t="s">
         <v>30</v>
       </c>
-      <c r="L112" s="16"/>
+      <c r="L112" s="21">
+        <f t="shared" si="2"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
@@ -5941,7 +6376,10 @@
       <c r="K113" t="s">
         <v>30</v>
       </c>
-      <c r="L113" s="16"/>
+      <c r="L113" s="21">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
@@ -5977,7 +6415,10 @@
       <c r="K114" t="s">
         <v>30</v>
       </c>
-      <c r="L114" s="16"/>
+      <c r="L114" s="21">
+        <f t="shared" si="2"/>
+        <v>0.98099999999999998</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
@@ -6013,7 +6454,10 @@
       <c r="K115" t="s">
         <v>30</v>
       </c>
-      <c r="L115" s="16"/>
+      <c r="L115" s="21">
+        <f t="shared" si="2"/>
+        <v>0.65600000000000003</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
@@ -6049,7 +6493,10 @@
       <c r="K116" t="s">
         <v>30</v>
       </c>
-      <c r="L116" s="16"/>
+      <c r="L116" s="21">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
@@ -6085,7 +6532,10 @@
       <c r="K117" t="s">
         <v>30</v>
       </c>
-      <c r="L117" s="16"/>
+      <c r="L117" s="21">
+        <f t="shared" si="2"/>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
@@ -6121,7 +6571,10 @@
       <c r="K118" t="s">
         <v>30</v>
       </c>
-      <c r="L118" s="16"/>
+      <c r="L118" s="21">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
@@ -6157,7 +6610,10 @@
       <c r="K119" t="s">
         <v>30</v>
       </c>
-      <c r="L119" s="16"/>
+      <c r="L119" s="21">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
@@ -6193,7 +6649,10 @@
       <c r="K120" t="s">
         <v>30</v>
       </c>
-      <c r="L120" s="16"/>
+      <c r="L120" s="21">
+        <f t="shared" si="2"/>
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
@@ -6229,7 +6688,10 @@
       <c r="K121" t="s">
         <v>30</v>
       </c>
-      <c r="L121" s="16"/>
+      <c r="L121" s="21">
+        <f t="shared" si="2"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
@@ -6265,7 +6727,10 @@
       <c r="K122" t="s">
         <v>30</v>
       </c>
-      <c r="L122" s="16"/>
+      <c r="L122" s="21">
+        <f t="shared" si="2"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
@@ -6301,7 +6766,10 @@
       <c r="K123" t="s">
         <v>30</v>
       </c>
-      <c r="L123" s="16"/>
+      <c r="L123" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
@@ -6337,7 +6805,10 @@
       <c r="K124" t="s">
         <v>30</v>
       </c>
-      <c r="L124" s="16"/>
+      <c r="L124" s="21">
+        <f t="shared" si="2"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
@@ -6373,7 +6844,10 @@
       <c r="K125" t="s">
         <v>30</v>
       </c>
-      <c r="L125" s="16"/>
+      <c r="L125" s="21">
+        <f t="shared" si="2"/>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
@@ -6409,7 +6883,10 @@
       <c r="K126" t="s">
         <v>30</v>
       </c>
-      <c r="L126" s="16"/>
+      <c r="L126" s="21">
+        <f t="shared" si="2"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
@@ -6445,7 +6922,10 @@
       <c r="K127" t="s">
         <v>30</v>
       </c>
-      <c r="L127" s="16"/>
+      <c r="L127" s="21">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
@@ -6481,7 +6961,10 @@
       <c r="K128" t="s">
         <v>30</v>
       </c>
-      <c r="L128" s="16"/>
+      <c r="L128" s="21">
+        <f t="shared" si="2"/>
+        <v>0.95199999999999996</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
@@ -6517,7 +7000,10 @@
       <c r="K129" t="s">
         <v>30</v>
       </c>
-      <c r="L129" s="16"/>
+      <c r="L129" s="21">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
@@ -6553,7 +7039,10 @@
       <c r="K130" t="s">
         <v>35</v>
       </c>
-      <c r="L130" s="16"/>
+      <c r="L130" s="21">
+        <f t="shared" si="2"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
@@ -6589,7 +7078,10 @@
       <c r="K131" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="16"/>
+      <c r="L131" s="21">
+        <f t="shared" ref="L131:L194" si="3">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G131)</f>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
@@ -6625,7 +7117,10 @@
       <c r="K132" t="s">
         <v>30</v>
       </c>
-      <c r="L132" s="16"/>
+      <c r="L132" s="21">
+        <f t="shared" si="3"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
@@ -6661,7 +7156,10 @@
       <c r="K133" t="s">
         <v>30</v>
       </c>
-      <c r="L133" s="16"/>
+      <c r="L133" s="21">
+        <f t="shared" si="3"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
@@ -6697,7 +7195,10 @@
       <c r="K134" t="s">
         <v>30</v>
       </c>
-      <c r="L134" s="16"/>
+      <c r="L134" s="21">
+        <f t="shared" si="3"/>
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
@@ -6733,7 +7234,10 @@
       <c r="K135" t="s">
         <v>30</v>
       </c>
-      <c r="L135" s="16"/>
+      <c r="L135" s="21">
+        <f t="shared" si="3"/>
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
@@ -6769,7 +7273,10 @@
       <c r="K136" t="s">
         <v>30</v>
       </c>
-      <c r="L136" s="16"/>
+      <c r="L136" s="21">
+        <f t="shared" si="3"/>
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
@@ -6805,7 +7312,10 @@
       <c r="K137" t="s">
         <v>35</v>
       </c>
-      <c r="L137" s="16"/>
+      <c r="L137" s="21">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
@@ -6841,7 +7351,10 @@
       <c r="K138" t="s">
         <v>30</v>
       </c>
-      <c r="L138" s="16"/>
+      <c r="L138" s="21">
+        <f t="shared" si="3"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
@@ -6877,7 +7390,10 @@
       <c r="K139" t="s">
         <v>30</v>
       </c>
-      <c r="L139" s="16"/>
+      <c r="L139" s="21">
+        <f t="shared" si="3"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
@@ -6913,7 +7429,10 @@
       <c r="K140" t="s">
         <v>30</v>
       </c>
-      <c r="L140" s="16"/>
+      <c r="L140" s="21">
+        <f t="shared" si="3"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
@@ -6949,7 +7468,10 @@
       <c r="K141" t="s">
         <v>30</v>
       </c>
-      <c r="L141" s="16"/>
+      <c r="L141" s="21">
+        <f t="shared" si="3"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
@@ -6985,7 +7507,10 @@
       <c r="K142" t="s">
         <v>30</v>
       </c>
-      <c r="L142" s="16"/>
+      <c r="L142" s="21">
+        <f t="shared" si="3"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
@@ -7021,7 +7546,10 @@
       <c r="K143" t="s">
         <v>30</v>
       </c>
-      <c r="L143" s="16"/>
+      <c r="L143" s="21">
+        <f t="shared" si="3"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
@@ -7057,7 +7585,10 @@
       <c r="K144" t="s">
         <v>30</v>
       </c>
-      <c r="L144" s="16"/>
+      <c r="L144" s="21">
+        <f t="shared" si="3"/>
+        <v>0.99399999999999999</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
@@ -7093,7 +7624,10 @@
       <c r="K145" t="s">
         <v>30</v>
       </c>
-      <c r="L145" s="16"/>
+      <c r="L145" s="21">
+        <f t="shared" si="3"/>
+        <v>0.76</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
@@ -7129,7 +7663,10 @@
       <c r="K146" t="s">
         <v>30</v>
       </c>
-      <c r="L146" s="16"/>
+      <c r="L146" s="21">
+        <f t="shared" si="3"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
@@ -7165,7 +7702,10 @@
       <c r="K147" t="s">
         <v>30</v>
       </c>
-      <c r="L147" s="16"/>
+      <c r="L147" s="21">
+        <f t="shared" si="3"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
@@ -7201,7 +7741,10 @@
       <c r="K148" t="s">
         <v>30</v>
       </c>
-      <c r="L148" s="16"/>
+      <c r="L148" s="21">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
@@ -7237,7 +7780,10 @@
       <c r="K149" t="s">
         <v>30</v>
       </c>
-      <c r="L149" s="16"/>
+      <c r="L149" s="21">
+        <f t="shared" si="3"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
@@ -7273,7 +7819,10 @@
       <c r="K150" t="s">
         <v>30</v>
       </c>
-      <c r="L150" s="16"/>
+      <c r="L150" s="21">
+        <f t="shared" si="3"/>
+        <v>0.69099999999999995</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
@@ -7309,7 +7858,10 @@
       <c r="K151" t="s">
         <v>30</v>
       </c>
-      <c r="L151" s="16"/>
+      <c r="L151" s="21">
+        <f t="shared" si="3"/>
+        <v>0.38100000000000001</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
@@ -7345,7 +7897,10 @@
       <c r="K152" t="s">
         <v>30</v>
       </c>
-      <c r="L152" s="16"/>
+      <c r="L152" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88400000000000001</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
@@ -7381,7 +7936,10 @@
       <c r="K153" t="s">
         <v>30</v>
       </c>
-      <c r="L153" s="16"/>
+      <c r="L153" s="21">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
@@ -7417,7 +7975,10 @@
       <c r="K154" t="s">
         <v>30</v>
       </c>
-      <c r="L154" s="16"/>
+      <c r="L154" s="21">
+        <f t="shared" si="3"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
@@ -7453,7 +8014,10 @@
       <c r="K155" t="s">
         <v>30</v>
       </c>
-      <c r="L155" s="16"/>
+      <c r="L155" s="21">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
@@ -7489,7 +8053,10 @@
       <c r="K156" t="s">
         <v>30</v>
       </c>
-      <c r="L156" s="16"/>
+      <c r="L156" s="21">
+        <f t="shared" si="3"/>
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
@@ -7525,7 +8092,10 @@
       <c r="K157" t="s">
         <v>30</v>
       </c>
-      <c r="L157" s="16"/>
+      <c r="L157" s="21">
+        <f t="shared" si="3"/>
+        <v>0.65700000000000003</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
@@ -7561,7 +8131,10 @@
       <c r="K158" t="s">
         <v>30</v>
       </c>
-      <c r="L158" s="16"/>
+      <c r="L158" s="21">
+        <f t="shared" si="3"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
@@ -7597,7 +8170,10 @@
       <c r="K159" t="s">
         <v>30</v>
       </c>
-      <c r="L159" s="16"/>
+      <c r="L159" s="21">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
@@ -7633,7 +8209,10 @@
       <c r="K160" t="s">
         <v>35</v>
       </c>
-      <c r="L160" s="16"/>
+      <c r="L160" s="21">
+        <f t="shared" si="3"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
@@ -7669,7 +8248,10 @@
       <c r="K161" t="s">
         <v>30</v>
       </c>
-      <c r="L161" s="16"/>
+      <c r="L161" s="21">
+        <f t="shared" si="3"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
@@ -7705,7 +8287,10 @@
       <c r="K162" t="s">
         <v>30</v>
       </c>
-      <c r="L162" s="16"/>
+      <c r="L162" s="21">
+        <f t="shared" si="3"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
@@ -7741,7 +8326,10 @@
       <c r="K163" t="s">
         <v>30</v>
       </c>
-      <c r="L163" s="16"/>
+      <c r="L163" s="21">
+        <f t="shared" si="3"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
@@ -7777,7 +8365,10 @@
       <c r="K164" t="s">
         <v>30</v>
       </c>
-      <c r="L164" s="16"/>
+      <c r="L164" s="21">
+        <f t="shared" si="3"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
@@ -7813,7 +8404,10 @@
       <c r="K165" t="s">
         <v>30</v>
       </c>
-      <c r="L165" s="16"/>
+      <c r="L165" s="21">
+        <f t="shared" si="3"/>
+        <v>0.40699999999999997</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
@@ -7849,7 +8443,10 @@
       <c r="K166" t="s">
         <v>30</v>
       </c>
-      <c r="L166" s="16"/>
+      <c r="L166" s="21">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
@@ -7885,7 +8482,10 @@
       <c r="K167" t="s">
         <v>30</v>
       </c>
-      <c r="L167" s="16"/>
+      <c r="L167" s="21">
+        <f t="shared" si="3"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
@@ -7921,7 +8521,10 @@
       <c r="K168" t="s">
         <v>30</v>
       </c>
-      <c r="L168" s="16"/>
+      <c r="L168" s="21">
+        <f t="shared" si="3"/>
+        <v>0.33600000000000002</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
@@ -7957,7 +8560,10 @@
       <c r="K169" t="s">
         <v>30</v>
       </c>
-      <c r="L169" s="16"/>
+      <c r="L169" s="21">
+        <f t="shared" si="3"/>
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
@@ -7993,7 +8599,10 @@
       <c r="K170" t="s">
         <v>30</v>
       </c>
-      <c r="L170" s="16"/>
+      <c r="L170" s="21">
+        <f t="shared" si="3"/>
+        <v>0.65700000000000003</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
@@ -8029,7 +8638,10 @@
       <c r="K171" t="s">
         <v>30</v>
       </c>
-      <c r="L171" s="16"/>
+      <c r="L171" s="21">
+        <f t="shared" si="3"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
@@ -8065,7 +8677,10 @@
       <c r="K172" t="s">
         <v>30</v>
       </c>
-      <c r="L172" s="16"/>
+      <c r="L172" s="21">
+        <f t="shared" si="3"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
@@ -8101,7 +8716,10 @@
       <c r="K173" t="s">
         <v>30</v>
       </c>
-      <c r="L173" s="16"/>
+      <c r="L173" s="21">
+        <f t="shared" si="3"/>
+        <v>0.26700000000000002</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
@@ -8137,7 +8755,10 @@
       <c r="K174" t="s">
         <v>30</v>
       </c>
-      <c r="L174" s="16"/>
+      <c r="L174" s="21">
+        <f t="shared" si="3"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
@@ -8173,7 +8794,10 @@
       <c r="K175" t="s">
         <v>30</v>
       </c>
-      <c r="L175" s="16"/>
+      <c r="L175" s="21">
+        <f t="shared" si="3"/>
+        <v>0.94</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
@@ -8209,7 +8833,10 @@
       <c r="K176" t="s">
         <v>30</v>
       </c>
-      <c r="L176" s="16"/>
+      <c r="L176" s="21">
+        <f t="shared" si="3"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
@@ -8245,7 +8872,10 @@
       <c r="K177" t="s">
         <v>30</v>
       </c>
-      <c r="L177" s="16"/>
+      <c r="L177" s="21">
+        <f t="shared" si="3"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
@@ -8281,7 +8911,10 @@
       <c r="K178" t="s">
         <v>30</v>
       </c>
-      <c r="L178" s="16"/>
+      <c r="L178" s="21">
+        <f t="shared" si="3"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
@@ -8317,7 +8950,10 @@
       <c r="K179" t="s">
         <v>30</v>
       </c>
-      <c r="L179" s="16"/>
+      <c r="L179" s="21">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
@@ -8353,7 +8989,10 @@
       <c r="K180" t="s">
         <v>30</v>
       </c>
-      <c r="L180" s="16"/>
+      <c r="L180" s="21">
+        <f t="shared" si="3"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
@@ -8389,7 +9028,10 @@
       <c r="K181" t="s">
         <v>30</v>
       </c>
-      <c r="L181" s="16"/>
+      <c r="L181" s="21">
+        <f t="shared" si="3"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
@@ -8425,7 +9067,10 @@
       <c r="K182" t="s">
         <v>30</v>
       </c>
-      <c r="L182" s="16"/>
+      <c r="L182" s="21">
+        <f t="shared" si="3"/>
+        <v>0.33600000000000002</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
@@ -8461,7 +9106,10 @@
       <c r="K183" t="s">
         <v>30</v>
       </c>
-      <c r="L183" s="16"/>
+      <c r="L183" s="21">
+        <f t="shared" si="3"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
@@ -8497,7 +9145,10 @@
       <c r="K184" t="s">
         <v>30</v>
       </c>
-      <c r="L184" s="16"/>
+      <c r="L184" s="21">
+        <f t="shared" si="3"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
@@ -8533,7 +9184,10 @@
       <c r="K185" t="s">
         <v>30</v>
       </c>
-      <c r="L185" s="16"/>
+      <c r="L185" s="21">
+        <f t="shared" si="3"/>
+        <v>4.7E-2</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
@@ -8569,7 +9223,10 @@
       <c r="K186" t="s">
         <v>54</v>
       </c>
-      <c r="L186" s="16"/>
+      <c r="L186" s="21">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
@@ -8605,7 +9262,10 @@
       <c r="K187" t="s">
         <v>30</v>
       </c>
-      <c r="L187" s="16"/>
+      <c r="L187" s="21">
+        <f t="shared" si="3"/>
+        <v>1.4E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
@@ -8641,7 +9301,10 @@
       <c r="K188" t="s">
         <v>30</v>
       </c>
-      <c r="L188" s="16"/>
+      <c r="L188" s="21">
+        <f t="shared" si="3"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
@@ -8677,7 +9340,10 @@
       <c r="K189" t="s">
         <v>30</v>
       </c>
-      <c r="L189" s="16"/>
+      <c r="L189" s="21">
+        <f t="shared" si="3"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
@@ -8713,7 +9379,10 @@
       <c r="K190" t="s">
         <v>30</v>
       </c>
-      <c r="L190" s="16"/>
+      <c r="L190" s="21">
+        <f t="shared" si="3"/>
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
@@ -8749,7 +9418,10 @@
       <c r="K191" t="s">
         <v>30</v>
       </c>
-      <c r="L191" s="16"/>
+      <c r="L191" s="21">
+        <f t="shared" si="3"/>
+        <v>0.378</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
@@ -8785,7 +9457,10 @@
       <c r="K192" t="s">
         <v>30</v>
       </c>
-      <c r="L192" s="16"/>
+      <c r="L192" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
@@ -8821,7 +9496,10 @@
       <c r="K193" t="s">
         <v>30</v>
       </c>
-      <c r="L193" s="16"/>
+      <c r="L193" s="21">
+        <f t="shared" si="3"/>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
@@ -8857,7 +9535,10 @@
       <c r="K194" t="s">
         <v>30</v>
       </c>
-      <c r="L194" s="16"/>
+      <c r="L194" s="21">
+        <f t="shared" si="3"/>
+        <v>0.22600000000000001</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
@@ -8893,7 +9574,10 @@
       <c r="K195" t="s">
         <v>54</v>
       </c>
-      <c r="L195" s="16"/>
+      <c r="L195" s="21">
+        <f t="shared" ref="L195:L258" si="4">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G195)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
@@ -8929,7 +9613,10 @@
       <c r="K196" t="s">
         <v>30</v>
       </c>
-      <c r="L196" s="16"/>
+      <c r="L196" s="21">
+        <f t="shared" si="4"/>
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
@@ -8965,7 +9652,10 @@
       <c r="K197" t="s">
         <v>30</v>
       </c>
-      <c r="L197" s="16"/>
+      <c r="L197" s="21">
+        <f t="shared" si="4"/>
+        <v>0.65700000000000003</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
@@ -9001,7 +9691,10 @@
       <c r="K198" t="s">
         <v>30</v>
       </c>
-      <c r="L198" s="16"/>
+      <c r="L198" s="21">
+        <f t="shared" si="4"/>
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
@@ -9037,7 +9730,10 @@
       <c r="K199" t="s">
         <v>30</v>
       </c>
-      <c r="L199" s="16"/>
+      <c r="L199" s="21">
+        <f t="shared" si="4"/>
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
@@ -9073,7 +9769,10 @@
       <c r="K200" t="s">
         <v>30</v>
       </c>
-      <c r="L200" s="16"/>
+      <c r="L200" s="21">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
@@ -9109,7 +9808,10 @@
       <c r="K201" t="s">
         <v>30</v>
       </c>
-      <c r="L201" s="16"/>
+      <c r="L201" s="21">
+        <f t="shared" si="4"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
@@ -9145,7 +9847,10 @@
       <c r="K202" t="s">
         <v>30</v>
       </c>
-      <c r="L202" s="16"/>
+      <c r="L202" s="21">
+        <f t="shared" si="4"/>
+        <v>0.84499999999999997</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
@@ -9181,7 +9886,10 @@
       <c r="K203" t="s">
         <v>30</v>
       </c>
-      <c r="L203" s="16"/>
+      <c r="L203" s="21">
+        <f t="shared" si="4"/>
+        <v>0.66100000000000003</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
@@ -9217,7 +9925,10 @@
       <c r="K204" t="s">
         <v>30</v>
       </c>
-      <c r="L204" s="16"/>
+      <c r="L204" s="21">
+        <f t="shared" si="4"/>
+        <v>0.92300000000000004</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
@@ -9253,7 +9964,10 @@
       <c r="K205" t="s">
         <v>30</v>
       </c>
-      <c r="L205" s="16"/>
+      <c r="L205" s="21">
+        <f t="shared" si="4"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
@@ -9289,7 +10003,10 @@
       <c r="K206" t="s">
         <v>30</v>
       </c>
-      <c r="L206" s="16"/>
+      <c r="L206" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
@@ -9325,7 +10042,10 @@
       <c r="K207" t="s">
         <v>30</v>
       </c>
-      <c r="L207" s="16"/>
+      <c r="L207" s="21">
+        <f t="shared" si="4"/>
+        <v>0.192</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
@@ -9361,7 +10081,10 @@
       <c r="K208" t="s">
         <v>30</v>
       </c>
-      <c r="L208" s="16"/>
+      <c r="L208" s="21">
+        <f t="shared" si="4"/>
+        <v>0.93899999999999995</v>
+      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
@@ -9397,7 +10120,10 @@
       <c r="K209" t="s">
         <v>30</v>
       </c>
-      <c r="L209" s="16"/>
+      <c r="L209" s="21">
+        <f t="shared" si="4"/>
+        <v>0.34300000000000003</v>
+      </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
@@ -9433,7 +10159,10 @@
       <c r="K210" t="s">
         <v>30</v>
       </c>
-      <c r="L210" s="16"/>
+      <c r="L210" s="21">
+        <f t="shared" si="4"/>
+        <v>0.115</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
@@ -9469,7 +10198,10 @@
       <c r="K211" t="s">
         <v>30</v>
       </c>
-      <c r="L211" s="16"/>
+      <c r="L211" s="21">
+        <f t="shared" si="4"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
@@ -9505,7 +10237,10 @@
       <c r="K212" t="s">
         <v>30</v>
       </c>
-      <c r="L212" s="16"/>
+      <c r="L212" s="21">
+        <f t="shared" si="4"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
@@ -9541,7 +10276,10 @@
       <c r="K213" t="s">
         <v>30</v>
       </c>
-      <c r="L213" s="16"/>
+      <c r="L213" s="21">
+        <f t="shared" si="4"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
@@ -9577,7 +10315,10 @@
       <c r="K214" t="s">
         <v>30</v>
       </c>
-      <c r="L214" s="16"/>
+      <c r="L214" s="21">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
@@ -9613,7 +10354,10 @@
       <c r="K215" t="s">
         <v>30</v>
       </c>
-      <c r="L215" s="16"/>
+      <c r="L215" s="21">
+        <f t="shared" si="4"/>
+        <v>0.94</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
@@ -9649,7 +10393,10 @@
       <c r="K216" t="s">
         <v>30</v>
       </c>
-      <c r="L216" s="16"/>
+      <c r="L216" s="21">
+        <f t="shared" si="4"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
@@ -9685,7 +10432,10 @@
       <c r="K217" t="s">
         <v>30</v>
       </c>
-      <c r="L217" s="16"/>
+      <c r="L217" s="21">
+        <f t="shared" si="4"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
@@ -9721,7 +10471,10 @@
       <c r="K218" t="s">
         <v>30</v>
       </c>
-      <c r="L218" s="16"/>
+      <c r="L218" s="21">
+        <f t="shared" si="4"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
@@ -9757,7 +10510,10 @@
       <c r="K219" t="s">
         <v>30</v>
       </c>
-      <c r="L219" s="16"/>
+      <c r="L219" s="21">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
@@ -9793,7 +10549,10 @@
       <c r="K220" t="s">
         <v>30</v>
       </c>
-      <c r="L220" s="16"/>
+      <c r="L220" s="21">
+        <f t="shared" si="4"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
@@ -9829,7 +10588,10 @@
       <c r="K221" t="s">
         <v>30</v>
       </c>
-      <c r="L221" s="16"/>
+      <c r="L221" s="21">
+        <f t="shared" si="4"/>
+        <v>0.33600000000000002</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
@@ -9865,7 +10627,10 @@
       <c r="K222" t="s">
         <v>54</v>
       </c>
-      <c r="L222" s="16"/>
+      <c r="L222" s="21">
+        <f t="shared" si="4"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
@@ -9901,7 +10666,10 @@
       <c r="K223" t="s">
         <v>54</v>
       </c>
-      <c r="L223" s="16"/>
+      <c r="L223" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
@@ -9937,7 +10705,10 @@
       <c r="K224" t="s">
         <v>30</v>
       </c>
-      <c r="L224" s="16"/>
+      <c r="L224" s="21">
+        <f t="shared" si="4"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
@@ -9973,7 +10744,10 @@
       <c r="K225" t="s">
         <v>30</v>
       </c>
-      <c r="L225" s="16"/>
+      <c r="L225" s="21">
+        <f t="shared" si="4"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
@@ -10009,7 +10783,10 @@
       <c r="K226" t="s">
         <v>30</v>
       </c>
-      <c r="L226" s="16"/>
+      <c r="L226" s="21">
+        <f t="shared" si="4"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
@@ -10045,7 +10822,10 @@
       <c r="K227" t="s">
         <v>30</v>
       </c>
-      <c r="L227" s="16"/>
+      <c r="L227" s="21">
+        <f t="shared" si="4"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
@@ -10081,7 +10861,10 @@
       <c r="K228" t="s">
         <v>30</v>
       </c>
-      <c r="L228" s="16"/>
+      <c r="L228" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
@@ -10117,7 +10900,10 @@
       <c r="K229" t="s">
         <v>30</v>
       </c>
-      <c r="L229" s="16"/>
+      <c r="L229" s="21">
+        <f t="shared" si="4"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
@@ -10153,7 +10939,10 @@
       <c r="K230" t="s">
         <v>30</v>
       </c>
-      <c r="L230" s="16"/>
+      <c r="L230" s="21">
+        <f t="shared" si="4"/>
+        <v>0.78500000000000003</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
@@ -10189,7 +10978,10 @@
       <c r="K231" t="s">
         <v>30</v>
       </c>
-      <c r="L231" s="16"/>
+      <c r="L231" s="21">
+        <f t="shared" si="4"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
@@ -10225,7 +11017,10 @@
       <c r="K232" t="s">
         <v>30</v>
       </c>
-      <c r="L232" s="16"/>
+      <c r="L232" s="21">
+        <f t="shared" si="4"/>
+        <v>0.54500000000000004</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
@@ -10261,7 +11056,10 @@
       <c r="K233" t="s">
         <v>30</v>
       </c>
-      <c r="L233" s="16"/>
+      <c r="L233" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23200000000000001</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
@@ -10297,7 +11095,10 @@
       <c r="K234" t="s">
         <v>35</v>
       </c>
-      <c r="L234" s="16"/>
+      <c r="L234" s="21">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
@@ -10333,7 +11134,10 @@
       <c r="K235" t="s">
         <v>30</v>
       </c>
-      <c r="L235" s="16"/>
+      <c r="L235" s="21">
+        <f t="shared" si="4"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
@@ -10369,7 +11173,10 @@
       <c r="K236" t="s">
         <v>30</v>
       </c>
-      <c r="L236" s="16"/>
+      <c r="L236" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
@@ -10405,7 +11212,10 @@
       <c r="K237" t="s">
         <v>30</v>
       </c>
-      <c r="L237" s="16"/>
+      <c r="L237" s="21">
+        <f t="shared" si="4"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
@@ -10441,7 +11251,10 @@
       <c r="K238" t="s">
         <v>30</v>
       </c>
-      <c r="L238" s="16"/>
+      <c r="L238" s="21">
+        <f t="shared" si="4"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
@@ -10477,7 +11290,10 @@
       <c r="K239" t="s">
         <v>30</v>
       </c>
-      <c r="L239" s="16"/>
+      <c r="L239" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
@@ -10513,7 +11329,10 @@
       <c r="K240" t="s">
         <v>30</v>
       </c>
-      <c r="L240" s="16"/>
+      <c r="L240" s="21">
+        <f t="shared" si="4"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
@@ -10549,7 +11368,10 @@
       <c r="K241" t="s">
         <v>30</v>
       </c>
-      <c r="L241" s="16"/>
+      <c r="L241" s="21">
+        <f t="shared" si="4"/>
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
@@ -10585,7 +11407,10 @@
       <c r="K242" t="s">
         <v>30</v>
       </c>
-      <c r="L242" s="16"/>
+      <c r="L242" s="21">
+        <f t="shared" si="4"/>
+        <v>0.53200000000000003</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
@@ -10621,7 +11446,10 @@
       <c r="K243" t="s">
         <v>30</v>
       </c>
-      <c r="L243" s="16"/>
+      <c r="L243" s="21">
+        <f t="shared" si="4"/>
+        <v>0.14899999999999999</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
@@ -10657,7 +11485,10 @@
       <c r="K244" t="s">
         <v>30</v>
       </c>
-      <c r="L244" s="16"/>
+      <c r="L244" s="21">
+        <f t="shared" si="4"/>
+        <v>0.11600000000000001</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
@@ -10693,7 +11524,10 @@
       <c r="K245" t="s">
         <v>35</v>
       </c>
-      <c r="L245" s="16"/>
+      <c r="L245" s="21">
+        <f t="shared" si="4"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
@@ -10729,7 +11563,10 @@
       <c r="K246" t="s">
         <v>35</v>
       </c>
-      <c r="L246" s="16"/>
+      <c r="L246" s="21">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
@@ -10765,7 +11602,10 @@
       <c r="K247" t="s">
         <v>30</v>
       </c>
-      <c r="L247" s="16"/>
+      <c r="L247" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
@@ -10801,7 +11641,10 @@
       <c r="K248" t="s">
         <v>30</v>
       </c>
-      <c r="L248" s="16"/>
+      <c r="L248" s="21">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
@@ -10837,7 +11680,10 @@
       <c r="K249" t="s">
         <v>30</v>
       </c>
-      <c r="L249" s="16"/>
+      <c r="L249" s="21">
+        <f t="shared" si="4"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
@@ -10873,7 +11719,10 @@
       <c r="K250" t="s">
         <v>30</v>
       </c>
-      <c r="L250" s="16"/>
+      <c r="L250" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
@@ -10909,7 +11758,10 @@
       <c r="K251" t="s">
         <v>30</v>
       </c>
-      <c r="L251" s="16"/>
+      <c r="L251" s="21">
+        <f t="shared" si="4"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
@@ -10945,7 +11797,10 @@
       <c r="K252" t="s">
         <v>30</v>
       </c>
-      <c r="L252" s="16"/>
+      <c r="L252" s="21">
+        <f t="shared" si="4"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
@@ -10981,7 +11836,10 @@
       <c r="K253" t="s">
         <v>30</v>
       </c>
-      <c r="L253" s="16"/>
+      <c r="L253" s="21">
+        <f t="shared" si="4"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
@@ -11017,7 +11875,10 @@
       <c r="K254" t="s">
         <v>30</v>
       </c>
-      <c r="L254" s="16"/>
+      <c r="L254" s="21">
+        <f t="shared" si="4"/>
+        <v>0.66900000000000004</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
@@ -11053,7 +11914,10 @@
       <c r="K255" t="s">
         <v>30</v>
       </c>
-      <c r="L255" s="16"/>
+      <c r="L255" s="21">
+        <f t="shared" si="4"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
@@ -11089,7 +11953,10 @@
       <c r="K256" t="s">
         <v>30</v>
       </c>
-      <c r="L256" s="16"/>
+      <c r="L256" s="21">
+        <f t="shared" si="4"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
@@ -11125,7 +11992,10 @@
       <c r="K257" t="s">
         <v>35</v>
       </c>
-      <c r="L257" s="16"/>
+      <c r="L257" s="21">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
@@ -11161,7 +12031,10 @@
       <c r="K258" t="s">
         <v>30</v>
       </c>
-      <c r="L258" s="16"/>
+      <c r="L258" s="21">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
@@ -11197,7 +12070,10 @@
       <c r="K259" t="s">
         <v>30</v>
       </c>
-      <c r="L259" s="16"/>
+      <c r="L259" s="21">
+        <f t="shared" ref="L259:L322" si="5">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G259)</f>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
@@ -11233,7 +12109,10 @@
       <c r="K260" t="s">
         <v>30</v>
       </c>
-      <c r="L260" s="16"/>
+      <c r="L260" s="21">
+        <f t="shared" si="5"/>
+        <v>0.54500000000000004</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
@@ -11269,7 +12148,10 @@
       <c r="K261" t="s">
         <v>30</v>
       </c>
-      <c r="L261" s="16"/>
+      <c r="L261" s="21">
+        <f t="shared" si="5"/>
+        <v>0.33500000000000002</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
@@ -11305,7 +12187,10 @@
       <c r="K262" t="s">
         <v>30</v>
       </c>
-      <c r="L262" s="16"/>
+      <c r="L262" s="21">
+        <f t="shared" si="5"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
@@ -11341,7 +12226,10 @@
       <c r="K263" t="s">
         <v>30</v>
       </c>
-      <c r="L263" s="16"/>
+      <c r="L263" s="21">
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264">
@@ -11377,7 +12265,10 @@
       <c r="K264" t="s">
         <v>30</v>
       </c>
-      <c r="L264" s="16"/>
+      <c r="L264" s="21">
+        <f t="shared" si="5"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265">
@@ -11413,7 +12304,10 @@
       <c r="K265" t="s">
         <v>30</v>
       </c>
-      <c r="L265" s="16"/>
+      <c r="L265" s="21">
+        <f t="shared" si="5"/>
+        <v>0.995</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266">
@@ -11449,7 +12343,10 @@
       <c r="K266" t="s">
         <v>30</v>
       </c>
-      <c r="L266" s="16"/>
+      <c r="L266" s="21">
+        <f t="shared" si="5"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267">
@@ -11485,7 +12382,10 @@
       <c r="K267" t="s">
         <v>30</v>
       </c>
-      <c r="L267" s="16"/>
+      <c r="L267" s="21">
+        <f t="shared" si="5"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268">
@@ -11521,7 +12421,10 @@
       <c r="K268" t="s">
         <v>30</v>
       </c>
-      <c r="L268" s="16"/>
+      <c r="L268" s="21">
+        <f t="shared" si="5"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269">
@@ -11557,7 +12460,10 @@
       <c r="K269" t="s">
         <v>30</v>
       </c>
-      <c r="L269" s="16"/>
+      <c r="L269" s="21">
+        <f t="shared" si="5"/>
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270">
@@ -11593,7 +12499,10 @@
       <c r="K270" t="s">
         <v>30</v>
       </c>
-      <c r="L270" s="16"/>
+      <c r="L270" s="21">
+        <f t="shared" si="5"/>
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271">
@@ -11629,7 +12538,10 @@
       <c r="K271" t="s">
         <v>30</v>
       </c>
-      <c r="L271" s="16"/>
+      <c r="L271" s="21">
+        <f t="shared" si="5"/>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272">
@@ -11665,7 +12577,10 @@
       <c r="K272" t="s">
         <v>30</v>
       </c>
-      <c r="L272" s="16"/>
+      <c r="L272" s="21">
+        <f t="shared" si="5"/>
+        <v>0.122</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273">
@@ -11701,7 +12616,10 @@
       <c r="K273" t="s">
         <v>30</v>
       </c>
-      <c r="L273" s="16"/>
+      <c r="L273" s="21">
+        <f t="shared" si="5"/>
+        <v>0.96099999999999997</v>
+      </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274">
@@ -11737,7 +12655,10 @@
       <c r="K274" t="s">
         <v>30</v>
       </c>
-      <c r="L274" s="16"/>
+      <c r="L274" s="21">
+        <f t="shared" si="5"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275">
@@ -11773,7 +12694,10 @@
       <c r="K275" t="s">
         <v>30</v>
       </c>
-      <c r="L275" s="16"/>
+      <c r="L275" s="21">
+        <f t="shared" si="5"/>
+        <v>0.17100000000000001</v>
+      </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276">
@@ -11809,7 +12733,10 @@
       <c r="K276" t="s">
         <v>30</v>
       </c>
-      <c r="L276" s="16"/>
+      <c r="L276" s="21">
+        <f t="shared" si="5"/>
+        <v>0.13300000000000001</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277">
@@ -11845,7 +12772,10 @@
       <c r="K277" t="s">
         <v>30</v>
       </c>
-      <c r="L277" s="16"/>
+      <c r="L277" s="21">
+        <f t="shared" si="5"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278">
@@ -11881,7 +12811,10 @@
       <c r="K278" t="s">
         <v>30</v>
       </c>
-      <c r="L278" s="16"/>
+      <c r="L278" s="21">
+        <f t="shared" si="5"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279">
@@ -11917,7 +12850,10 @@
       <c r="K279" t="s">
         <v>30</v>
       </c>
-      <c r="L279" s="16"/>
+      <c r="L279" s="21">
+        <f t="shared" si="5"/>
+        <v>0.97299999999999998</v>
+      </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280">
@@ -11953,7 +12889,10 @@
       <c r="K280" t="s">
         <v>30</v>
       </c>
-      <c r="L280" s="16"/>
+      <c r="L280" s="21">
+        <f t="shared" si="5"/>
+        <v>0.76100000000000001</v>
+      </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281">
@@ -11989,7 +12928,10 @@
       <c r="K281" t="s">
         <v>30</v>
       </c>
-      <c r="L281" s="16"/>
+      <c r="L281" s="21">
+        <f t="shared" si="5"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282">
@@ -12025,7 +12967,10 @@
       <c r="K282" t="s">
         <v>30</v>
       </c>
-      <c r="L282" s="16"/>
+      <c r="L282" s="21">
+        <f t="shared" si="5"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283">
@@ -12061,7 +13006,10 @@
       <c r="K283" t="s">
         <v>30</v>
       </c>
-      <c r="L283" s="16"/>
+      <c r="L283" s="21">
+        <f t="shared" si="5"/>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284">
@@ -12097,7 +13045,10 @@
       <c r="K284" t="s">
         <v>30</v>
       </c>
-      <c r="L284" s="16"/>
+      <c r="L284" s="21">
+        <f t="shared" si="5"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285">
@@ -12133,7 +13084,10 @@
       <c r="K285" t="s">
         <v>30</v>
       </c>
-      <c r="L285" s="16"/>
+      <c r="L285" s="21">
+        <f t="shared" si="5"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286">
@@ -12169,7 +13123,10 @@
       <c r="K286" t="s">
         <v>30</v>
       </c>
-      <c r="L286" s="16"/>
+      <c r="L286" s="21">
+        <f t="shared" si="5"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287">
@@ -12205,7 +13162,10 @@
       <c r="K287" t="s">
         <v>30</v>
       </c>
-      <c r="L287" s="16"/>
+      <c r="L287" s="21">
+        <f t="shared" si="5"/>
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288">
@@ -12241,7 +13201,10 @@
       <c r="K288" t="s">
         <v>30</v>
       </c>
-      <c r="L288" s="16"/>
+      <c r="L288" s="21">
+        <f t="shared" si="5"/>
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289">
@@ -12277,7 +13240,10 @@
       <c r="K289" t="s">
         <v>30</v>
       </c>
-      <c r="L289" s="16"/>
+      <c r="L289" s="21">
+        <f t="shared" si="5"/>
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290">
@@ -12313,7 +13279,10 @@
       <c r="K290" t="s">
         <v>30</v>
       </c>
-      <c r="L290" s="16"/>
+      <c r="L290" s="21">
+        <f t="shared" si="5"/>
+        <v>0.38100000000000001</v>
+      </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291">
@@ -12349,7 +13318,10 @@
       <c r="K291" t="s">
         <v>30</v>
       </c>
-      <c r="L291" s="16"/>
+      <c r="L291" s="21">
+        <f t="shared" si="5"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292">
@@ -12385,7 +13357,10 @@
       <c r="K292" t="s">
         <v>30</v>
       </c>
-      <c r="L292" s="16"/>
+      <c r="L292" s="21">
+        <f t="shared" si="5"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293">
@@ -12421,7 +13396,10 @@
       <c r="K293" t="s">
         <v>30</v>
       </c>
-      <c r="L293" s="16"/>
+      <c r="L293" s="21">
+        <f t="shared" si="5"/>
+        <v>0.48699999999999999</v>
+      </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294">
@@ -12457,7 +13435,10 @@
       <c r="K294" t="s">
         <v>30</v>
       </c>
-      <c r="L294" s="16"/>
+      <c r="L294" s="21">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999999</v>
+      </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295">
@@ -12493,7 +13474,10 @@
       <c r="K295" t="s">
         <v>30</v>
       </c>
-      <c r="L295" s="16"/>
+      <c r="L295" s="21">
+        <f t="shared" si="5"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296">
@@ -12529,7 +13513,10 @@
       <c r="K296" t="s">
         <v>30</v>
       </c>
-      <c r="L296" s="16"/>
+      <c r="L296" s="21">
+        <f t="shared" si="5"/>
+        <v>0.34499999999999997</v>
+      </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297">
@@ -12565,7 +13552,10 @@
       <c r="K297" t="s">
         <v>30</v>
       </c>
-      <c r="L297" s="16"/>
+      <c r="L297" s="21">
+        <f t="shared" si="5"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298">
@@ -12601,7 +13591,10 @@
       <c r="K298" t="s">
         <v>30</v>
       </c>
-      <c r="L298" s="16"/>
+      <c r="L298" s="21">
+        <f t="shared" si="5"/>
+        <v>0.53200000000000003</v>
+      </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299">
@@ -12637,7 +13630,10 @@
       <c r="K299" t="s">
         <v>54</v>
       </c>
-      <c r="L299" s="16"/>
+      <c r="L299" s="21">
+        <f t="shared" si="5"/>
+        <v>4.7E-2</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300">
@@ -12673,7 +13669,10 @@
       <c r="K300" t="s">
         <v>30</v>
       </c>
-      <c r="L300" s="16"/>
+      <c r="L300" s="21">
+        <f t="shared" si="5"/>
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301">
@@ -12709,7 +13708,10 @@
       <c r="K301" t="s">
         <v>30</v>
       </c>
-      <c r="L301" s="16"/>
+      <c r="L301" s="21">
+        <f t="shared" si="5"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302">
@@ -12745,7 +13747,10 @@
       <c r="K302" t="s">
         <v>30</v>
       </c>
-      <c r="L302" s="16"/>
+      <c r="L302" s="21">
+        <f t="shared" si="5"/>
+        <v>0.53500000000000003</v>
+      </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303">
@@ -12781,7 +13786,10 @@
       <c r="K303" t="s">
         <v>30</v>
       </c>
-      <c r="L303" s="16"/>
+      <c r="L303" s="21">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304">
@@ -12817,7 +13825,10 @@
       <c r="K304" t="s">
         <v>30</v>
       </c>
-      <c r="L304" s="16"/>
+      <c r="L304" s="21">
+        <f t="shared" si="5"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305">
@@ -12853,7 +13864,10 @@
       <c r="K305" t="s">
         <v>30</v>
       </c>
-      <c r="L305" s="16"/>
+      <c r="L305" s="21">
+        <f t="shared" si="5"/>
+        <v>0.68500000000000005</v>
+      </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306">
@@ -12889,7 +13903,10 @@
       <c r="K306" t="s">
         <v>30</v>
       </c>
-      <c r="L306" s="16"/>
+      <c r="L306" s="21">
+        <f t="shared" si="5"/>
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307">
@@ -12925,7 +13942,10 @@
       <c r="K307" t="s">
         <v>30</v>
       </c>
-      <c r="L307" s="16"/>
+      <c r="L307" s="21">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308">
@@ -12961,7 +13981,10 @@
       <c r="K308" t="s">
         <v>30</v>
       </c>
-      <c r="L308" s="16"/>
+      <c r="L308" s="21">
+        <f t="shared" si="5"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309">
@@ -12997,7 +14020,10 @@
       <c r="K309" t="s">
         <v>30</v>
       </c>
-      <c r="L309" s="16"/>
+      <c r="L309" s="21">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310">
@@ -13033,7 +14059,10 @@
       <c r="K310" t="s">
         <v>30</v>
       </c>
-      <c r="L310" s="16"/>
+      <c r="L310" s="21">
+        <f t="shared" si="5"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311">
@@ -13069,7 +14098,10 @@
       <c r="K311" t="s">
         <v>30</v>
       </c>
-      <c r="L311" s="16"/>
+      <c r="L311" s="21">
+        <f t="shared" si="5"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312">
@@ -13105,7 +14137,10 @@
       <c r="K312" t="s">
         <v>30</v>
       </c>
-      <c r="L312" s="16"/>
+      <c r="L312" s="21">
+        <f t="shared" si="5"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313">
@@ -13141,7 +14176,10 @@
       <c r="K313" t="s">
         <v>30</v>
       </c>
-      <c r="L313" s="16"/>
+      <c r="L313" s="21">
+        <f t="shared" si="5"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314">
@@ -13177,7 +14215,10 @@
       <c r="K314" t="s">
         <v>35</v>
       </c>
-      <c r="L314" s="16"/>
+      <c r="L314" s="21">
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315">
@@ -13213,7 +14254,10 @@
       <c r="K315" t="s">
         <v>30</v>
       </c>
-      <c r="L315" s="16"/>
+      <c r="L315" s="21">
+        <f t="shared" si="5"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316">
@@ -13249,7 +14293,10 @@
       <c r="K316" t="s">
         <v>30</v>
       </c>
-      <c r="L316" s="16"/>
+      <c r="L316" s="21">
+        <f t="shared" si="5"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317">
@@ -13285,7 +14332,10 @@
       <c r="K317" t="s">
         <v>35</v>
       </c>
-      <c r="L317" s="16"/>
+      <c r="L317" s="21">
+        <f t="shared" si="5"/>
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318">
@@ -13321,7 +14371,10 @@
       <c r="K318" t="s">
         <v>30</v>
       </c>
-      <c r="L318" s="16"/>
+      <c r="L318" s="21">
+        <f t="shared" si="5"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319">
@@ -13357,7 +14410,10 @@
       <c r="K319" t="s">
         <v>30</v>
       </c>
-      <c r="L319" s="16"/>
+      <c r="L319" s="21">
+        <f t="shared" si="5"/>
+        <v>0.11600000000000001</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320">
@@ -13393,7 +14449,10 @@
       <c r="K320" t="s">
         <v>30</v>
       </c>
-      <c r="L320" s="16"/>
+      <c r="L320" s="21">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321">
@@ -13429,7 +14488,10 @@
       <c r="K321" t="s">
         <v>30</v>
       </c>
-      <c r="L321" s="16"/>
+      <c r="L321" s="21">
+        <f t="shared" si="5"/>
+        <v>0.11600000000000001</v>
+      </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322">
@@ -13465,7 +14527,10 @@
       <c r="K322" t="s">
         <v>30</v>
       </c>
-      <c r="L322" s="16"/>
+      <c r="L322" s="21">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323">
@@ -13501,7 +14566,10 @@
       <c r="K323" t="s">
         <v>30</v>
       </c>
-      <c r="L323" s="16"/>
+      <c r="L323" s="21">
+        <f t="shared" ref="L323:L386" si="6">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G323)</f>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324">
@@ -13537,7 +14605,10 @@
       <c r="K324" t="s">
         <v>30</v>
       </c>
-      <c r="L324" s="16"/>
+      <c r="L324" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325">
@@ -13573,7 +14644,10 @@
       <c r="K325" t="s">
         <v>30</v>
       </c>
-      <c r="L325" s="16"/>
+      <c r="L325" s="21">
+        <f t="shared" si="6"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326">
@@ -13609,7 +14683,10 @@
       <c r="K326" t="s">
         <v>30</v>
       </c>
-      <c r="L326" s="16"/>
+      <c r="L326" s="21">
+        <f t="shared" si="6"/>
+        <v>0.48399999999999999</v>
+      </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327">
@@ -13645,7 +14722,10 @@
       <c r="K327" t="s">
         <v>30</v>
       </c>
-      <c r="L327" s="16"/>
+      <c r="L327" s="21">
+        <f t="shared" si="6"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328">
@@ -13681,7 +14761,10 @@
       <c r="K328" t="s">
         <v>30</v>
       </c>
-      <c r="L328" s="16"/>
+      <c r="L328" s="21">
+        <f t="shared" si="6"/>
+        <v>0.50700000000000001</v>
+      </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329">
@@ -13717,7 +14800,10 @@
       <c r="K329" t="s">
         <v>30</v>
       </c>
-      <c r="L329" s="16"/>
+      <c r="L329" s="21">
+        <f t="shared" si="6"/>
+        <v>0.26700000000000002</v>
+      </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330">
@@ -13753,7 +14839,10 @@
       <c r="K330" t="s">
         <v>30</v>
       </c>
-      <c r="L330" s="16"/>
+      <c r="L330" s="21">
+        <f t="shared" si="6"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331">
@@ -13789,7 +14878,10 @@
       <c r="K331" t="s">
         <v>30</v>
       </c>
-      <c r="L331" s="16"/>
+      <c r="L331" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61799999999999999</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332">
@@ -13825,7 +14917,10 @@
       <c r="K332" t="s">
         <v>30</v>
       </c>
-      <c r="L332" s="16"/>
+      <c r="L332" s="21">
+        <f t="shared" si="6"/>
+        <v>0.22800000000000001</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333">
@@ -13861,7 +14956,10 @@
       <c r="K333" t="s">
         <v>30</v>
       </c>
-      <c r="L333" s="16"/>
+      <c r="L333" s="21">
+        <f t="shared" si="6"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334">
@@ -13897,7 +14995,10 @@
       <c r="K334" t="s">
         <v>30</v>
       </c>
-      <c r="L334" s="16"/>
+      <c r="L334" s="21">
+        <f t="shared" si="6"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335">
@@ -13933,7 +15034,10 @@
       <c r="K335" t="s">
         <v>30</v>
       </c>
-      <c r="L335" s="16"/>
+      <c r="L335" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336">
@@ -13969,7 +15073,10 @@
       <c r="K336" t="s">
         <v>30</v>
       </c>
-      <c r="L336" s="16"/>
+      <c r="L336" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337">
@@ -14005,7 +15112,10 @@
       <c r="K337" t="s">
         <v>30</v>
       </c>
-      <c r="L337" s="16"/>
+      <c r="L337" s="21">
+        <f t="shared" si="6"/>
+        <v>0.99199999999999999</v>
+      </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338">
@@ -14041,7 +15151,10 @@
       <c r="K338" t="s">
         <v>30</v>
       </c>
-      <c r="L338" s="16"/>
+      <c r="L338" s="21">
+        <f t="shared" si="6"/>
+        <v>0.75900000000000001</v>
+      </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339">
@@ -14077,7 +15190,10 @@
       <c r="K339" t="s">
         <v>35</v>
       </c>
-      <c r="L339" s="16"/>
+      <c r="L339" s="21">
+        <f t="shared" si="6"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340">
@@ -14113,7 +15229,10 @@
       <c r="K340" t="s">
         <v>30</v>
       </c>
-      <c r="L340" s="16"/>
+      <c r="L340" s="21">
+        <f t="shared" si="6"/>
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341">
@@ -14149,7 +15268,10 @@
       <c r="K341" t="s">
         <v>30</v>
       </c>
-      <c r="L341" s="16"/>
+      <c r="L341" s="21">
+        <f t="shared" si="6"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342">
@@ -14185,7 +15307,10 @@
       <c r="K342" t="s">
         <v>30</v>
       </c>
-      <c r="L342" s="16"/>
+      <c r="L342" s="21">
+        <f t="shared" si="6"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343">
@@ -14221,7 +15346,10 @@
       <c r="K343" t="s">
         <v>30</v>
       </c>
-      <c r="L343" s="16"/>
+      <c r="L343" s="21">
+        <f t="shared" si="6"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344">
@@ -14257,7 +15385,10 @@
       <c r="K344" t="s">
         <v>35</v>
       </c>
-      <c r="L344" s="16"/>
+      <c r="L344" s="21">
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345">
@@ -14293,7 +15424,10 @@
       <c r="K345" t="s">
         <v>35</v>
       </c>
-      <c r="L345" s="16"/>
+      <c r="L345" s="21">
+        <f t="shared" si="6"/>
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346">
@@ -14329,7 +15463,10 @@
       <c r="K346" t="s">
         <v>30</v>
       </c>
-      <c r="L346" s="16"/>
+      <c r="L346" s="21">
+        <f t="shared" si="6"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347">
@@ -14365,7 +15502,10 @@
       <c r="K347" t="s">
         <v>30</v>
       </c>
-      <c r="L347" s="16"/>
+      <c r="L347" s="21">
+        <f t="shared" si="6"/>
+        <v>0.187</v>
+      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348">
@@ -14401,7 +15541,10 @@
       <c r="K348" t="s">
         <v>35</v>
       </c>
-      <c r="L348" s="16"/>
+      <c r="L348" s="21">
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349">
@@ -14437,7 +15580,10 @@
       <c r="K349" t="s">
         <v>30</v>
       </c>
-      <c r="L349" s="16"/>
+      <c r="L349" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350">
@@ -14473,7 +15619,10 @@
       <c r="K350" t="s">
         <v>30</v>
       </c>
-      <c r="L350" s="16"/>
+      <c r="L350" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351">
@@ -14509,7 +15658,10 @@
       <c r="K351" t="s">
         <v>30</v>
       </c>
-      <c r="L351" s="16"/>
+      <c r="L351" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352">
@@ -14545,7 +15697,10 @@
       <c r="K352" t="s">
         <v>30</v>
       </c>
-      <c r="L352" s="16"/>
+      <c r="L352" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353">
@@ -14581,7 +15736,10 @@
       <c r="K353" t="s">
         <v>30</v>
       </c>
-      <c r="L353" s="16"/>
+      <c r="L353" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354">
@@ -14617,7 +15775,10 @@
       <c r="K354" t="s">
         <v>30</v>
       </c>
-      <c r="L354" s="16"/>
+      <c r="L354" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355">
@@ -14653,7 +15814,10 @@
       <c r="K355" t="s">
         <v>30</v>
       </c>
-      <c r="L355" s="16"/>
+      <c r="L355" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80700000000000005</v>
+      </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356">
@@ -14689,7 +15853,10 @@
       <c r="K356" t="s">
         <v>30</v>
       </c>
-      <c r="L356" s="16"/>
+      <c r="L356" s="21">
+        <f t="shared" si="6"/>
+        <v>0.626</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357">
@@ -14725,7 +15892,10 @@
       <c r="K357" t="s">
         <v>30</v>
       </c>
-      <c r="L357" s="16"/>
+      <c r="L357" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358">
@@ -14761,7 +15931,10 @@
       <c r="K358" t="s">
         <v>30</v>
       </c>
-      <c r="L358" s="16"/>
+      <c r="L358" s="21">
+        <f t="shared" si="6"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359">
@@ -14797,7 +15970,10 @@
       <c r="K359" t="s">
         <v>30</v>
       </c>
-      <c r="L359" s="16"/>
+      <c r="L359" s="21">
+        <f t="shared" si="6"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360">
@@ -14833,7 +16009,10 @@
       <c r="K360" t="s">
         <v>30</v>
       </c>
-      <c r="L360" s="16"/>
+      <c r="L360" s="21">
+        <f t="shared" si="6"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361">
@@ -14869,7 +16048,10 @@
       <c r="K361" t="s">
         <v>30</v>
       </c>
-      <c r="L361" s="16"/>
+      <c r="L361" s="21">
+        <f t="shared" si="6"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362">
@@ -14905,7 +16087,10 @@
       <c r="K362" t="s">
         <v>30</v>
       </c>
-      <c r="L362" s="16"/>
+      <c r="L362" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363">
@@ -14941,7 +16126,10 @@
       <c r="K363" t="s">
         <v>30</v>
       </c>
-      <c r="L363" s="16"/>
+      <c r="L363" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364">
@@ -14977,7 +16165,10 @@
       <c r="K364" t="s">
         <v>30</v>
       </c>
-      <c r="L364" s="16"/>
+      <c r="L364" s="21">
+        <f t="shared" si="6"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365">
@@ -15013,7 +16204,10 @@
       <c r="K365" t="s">
         <v>30</v>
       </c>
-      <c r="L365" s="16"/>
+      <c r="L365" s="21">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366">
@@ -15049,7 +16243,10 @@
       <c r="K366" t="s">
         <v>30</v>
       </c>
-      <c r="L366" s="16"/>
+      <c r="L366" s="21">
+        <f t="shared" si="6"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367">
@@ -15085,7 +16282,10 @@
       <c r="K367" t="s">
         <v>30</v>
       </c>
-      <c r="L367" s="16"/>
+      <c r="L367" s="21">
+        <f t="shared" si="6"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368">
@@ -15121,7 +16321,10 @@
       <c r="K368" t="s">
         <v>30</v>
       </c>
-      <c r="L368" s="16"/>
+      <c r="L368" s="21">
+        <f t="shared" si="6"/>
+        <v>0.69099999999999995</v>
+      </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369">
@@ -15157,7 +16360,10 @@
       <c r="K369" t="s">
         <v>30</v>
       </c>
-      <c r="L369" s="16"/>
+      <c r="L369" s="21">
+        <f t="shared" si="6"/>
+        <v>0.48799999999999999</v>
+      </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370">
@@ -15193,7 +16399,10 @@
       <c r="K370" t="s">
         <v>30</v>
       </c>
-      <c r="L370" s="16"/>
+      <c r="L370" s="21">
+        <f t="shared" si="6"/>
+        <v>0.48499999999999999</v>
+      </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371">
@@ -15229,7 +16438,10 @@
       <c r="K371" t="s">
         <v>30</v>
       </c>
-      <c r="L371" s="16"/>
+      <c r="L371" s="21">
+        <f t="shared" si="6"/>
+        <v>0.20499999999999999</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372">
@@ -15265,7 +16477,10 @@
       <c r="K372" t="s">
         <v>30</v>
       </c>
-      <c r="L372" s="16"/>
+      <c r="L372" s="21">
+        <f t="shared" si="6"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373">
@@ -15301,7 +16516,10 @@
       <c r="K373" t="s">
         <v>30</v>
       </c>
-      <c r="L373" s="16"/>
+      <c r="L373" s="21">
+        <f t="shared" si="6"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374">
@@ -15337,7 +16555,10 @@
       <c r="K374" t="s">
         <v>30</v>
       </c>
-      <c r="L374" s="16"/>
+      <c r="L374" s="21">
+        <f t="shared" si="6"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375">
@@ -15373,7 +16594,10 @@
       <c r="K375" t="s">
         <v>30</v>
       </c>
-      <c r="L375" s="16"/>
+      <c r="L375" s="21">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376">
@@ -15409,7 +16633,10 @@
       <c r="K376" t="s">
         <v>30</v>
       </c>
-      <c r="L376" s="16"/>
+      <c r="L376" s="21">
+        <f t="shared" si="6"/>
+        <v>0.998</v>
+      </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377">
@@ -15445,7 +16672,10 @@
       <c r="K377" t="s">
         <v>30</v>
       </c>
-      <c r="L377" s="16"/>
+      <c r="L377" s="21">
+        <f t="shared" si="6"/>
+        <v>0.14699999999999999</v>
+      </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378">
@@ -15481,7 +16711,10 @@
       <c r="K378" t="s">
         <v>30</v>
       </c>
-      <c r="L378" s="16"/>
+      <c r="L378" s="21">
+        <f t="shared" si="6"/>
+        <v>0.108</v>
+      </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379">
@@ -15517,7 +16750,10 @@
       <c r="K379" t="s">
         <v>30</v>
       </c>
-      <c r="L379" s="16"/>
+      <c r="L379" s="21">
+        <f t="shared" si="6"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380">
@@ -15553,7 +16789,10 @@
       <c r="K380" t="s">
         <v>30</v>
       </c>
-      <c r="L380" s="16"/>
+      <c r="L380" s="21">
+        <f t="shared" si="6"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381">
@@ -15589,7 +16828,10 @@
       <c r="K381" t="s">
         <v>30</v>
       </c>
-      <c r="L381" s="16"/>
+      <c r="L381" s="21">
+        <f t="shared" si="6"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382">
@@ -15625,7 +16867,10 @@
       <c r="K382" t="s">
         <v>35</v>
       </c>
-      <c r="L382" s="16"/>
+      <c r="L382" s="21">
+        <f t="shared" si="6"/>
+        <v>0.17299999999999999</v>
+      </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383">
@@ -15661,7 +16906,10 @@
       <c r="K383" t="s">
         <v>30</v>
       </c>
-      <c r="L383" s="16"/>
+      <c r="L383" s="21">
+        <f t="shared" si="6"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384">
@@ -15697,7 +16945,10 @@
       <c r="K384" t="s">
         <v>30</v>
       </c>
-      <c r="L384" s="16"/>
+      <c r="L384" s="21">
+        <f t="shared" si="6"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385">
@@ -15733,7 +16984,10 @@
       <c r="K385" t="s">
         <v>35</v>
       </c>
-      <c r="L385" s="16"/>
+      <c r="L385" s="21">
+        <f t="shared" si="6"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386">
@@ -15769,7 +17023,10 @@
       <c r="K386" t="s">
         <v>30</v>
       </c>
-      <c r="L386" s="16"/>
+      <c r="L386" s="21">
+        <f t="shared" si="6"/>
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387">
@@ -15805,7 +17062,10 @@
       <c r="K387" t="s">
         <v>30</v>
       </c>
-      <c r="L387" s="16"/>
+      <c r="L387" s="21">
+        <f t="shared" ref="L387:L450" si="7">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G387)</f>
+        <v>0.626</v>
+      </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388">
@@ -15841,7 +17101,10 @@
       <c r="K388" t="s">
         <v>30</v>
       </c>
-      <c r="L388" s="16"/>
+      <c r="L388" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389">
@@ -15877,7 +17140,10 @@
       <c r="K389" t="s">
         <v>30</v>
       </c>
-      <c r="L389" s="16"/>
+      <c r="L389" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390">
@@ -15913,7 +17179,10 @@
       <c r="K390" t="s">
         <v>35</v>
       </c>
-      <c r="L390" s="16"/>
+      <c r="L390" s="21">
+        <f t="shared" si="7"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391">
@@ -15949,7 +17218,10 @@
       <c r="K391" t="s">
         <v>35</v>
       </c>
-      <c r="L391" s="16"/>
+      <c r="L391" s="21">
+        <f t="shared" si="7"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392">
@@ -15985,7 +17257,10 @@
       <c r="K392" t="s">
         <v>30</v>
       </c>
-      <c r="L392" s="16"/>
+      <c r="L392" s="21">
+        <f t="shared" si="7"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393">
@@ -16021,7 +17296,10 @@
       <c r="K393" t="s">
         <v>30</v>
       </c>
-      <c r="L393" s="16"/>
+      <c r="L393" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394">
@@ -16057,7 +17335,10 @@
       <c r="K394" t="s">
         <v>30</v>
       </c>
-      <c r="L394" s="16"/>
+      <c r="L394" s="21">
+        <f t="shared" si="7"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395">
@@ -16093,7 +17374,10 @@
       <c r="K395" t="s">
         <v>30</v>
       </c>
-      <c r="L395" s="16"/>
+      <c r="L395" s="21">
+        <f t="shared" si="7"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396">
@@ -16129,7 +17413,10 @@
       <c r="K396" t="s">
         <v>30</v>
       </c>
-      <c r="L396" s="16"/>
+      <c r="L396" s="21">
+        <f t="shared" si="7"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397">
@@ -16165,7 +17452,10 @@
       <c r="K397" t="s">
         <v>30</v>
       </c>
-      <c r="L397" s="16"/>
+      <c r="L397" s="21">
+        <f t="shared" si="7"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398">
@@ -16201,7 +17491,10 @@
       <c r="K398" t="s">
         <v>30</v>
       </c>
-      <c r="L398" s="16"/>
+      <c r="L398" s="21">
+        <f t="shared" si="7"/>
+        <v>0.97</v>
+      </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399">
@@ -16237,7 +17530,10 @@
       <c r="K399" t="s">
         <v>30</v>
       </c>
-      <c r="L399" s="16"/>
+      <c r="L399" s="21">
+        <f t="shared" si="7"/>
+        <v>0.34899999999999998</v>
+      </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400">
@@ -16273,7 +17569,10 @@
       <c r="K400" t="s">
         <v>30</v>
       </c>
-      <c r="L400" s="16"/>
+      <c r="L400" s="21">
+        <f t="shared" si="7"/>
+        <v>0.96099999999999997</v>
+      </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401">
@@ -16309,7 +17608,10 @@
       <c r="K401" t="s">
         <v>30</v>
       </c>
-      <c r="L401" s="16"/>
+      <c r="L401" s="21">
+        <f t="shared" si="7"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402">
@@ -16345,7 +17647,10 @@
       <c r="K402" t="s">
         <v>30</v>
       </c>
-      <c r="L402" s="16"/>
+      <c r="L402" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403">
@@ -16381,7 +17686,10 @@
       <c r="K403" t="s">
         <v>30</v>
       </c>
-      <c r="L403" s="16"/>
+      <c r="L403" s="21">
+        <f t="shared" si="7"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404">
@@ -16417,7 +17725,10 @@
       <c r="K404" t="s">
         <v>30</v>
       </c>
-      <c r="L404" s="16"/>
+      <c r="L404" s="21">
+        <f t="shared" si="7"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405">
@@ -16453,7 +17764,10 @@
       <c r="K405" t="s">
         <v>54</v>
       </c>
-      <c r="L405" s="16"/>
+      <c r="L405" s="21">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406">
@@ -16489,7 +17803,10 @@
       <c r="K406" t="s">
         <v>35</v>
       </c>
-      <c r="L406" s="16"/>
+      <c r="L406" s="21">
+        <f t="shared" si="7"/>
+        <v>0.92600000000000005</v>
+      </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407">
@@ -16525,7 +17842,10 @@
       <c r="K407" t="s">
         <v>54</v>
       </c>
-      <c r="L407" s="16"/>
+      <c r="L407" s="21">
+        <f t="shared" si="7"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408">
@@ -16561,7 +17881,10 @@
       <c r="K408" t="s">
         <v>30</v>
       </c>
-      <c r="L408" s="16"/>
+      <c r="L408" s="21">
+        <f t="shared" si="7"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409">
@@ -16597,7 +17920,10 @@
       <c r="K409" t="s">
         <v>30</v>
       </c>
-      <c r="L409" s="16"/>
+      <c r="L409" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410">
@@ -16633,7 +17959,10 @@
       <c r="K410" t="s">
         <v>30</v>
       </c>
-      <c r="L410" s="16"/>
+      <c r="L410" s="21">
+        <f t="shared" si="7"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411">
@@ -16669,7 +17998,10 @@
       <c r="K411" t="s">
         <v>30</v>
       </c>
-      <c r="L411" s="16"/>
+      <c r="L411" s="21">
+        <f t="shared" si="7"/>
+        <v>0.66900000000000004</v>
+      </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412">
@@ -16705,7 +18037,10 @@
       <c r="K412" t="s">
         <v>30</v>
       </c>
-      <c r="L412" s="16"/>
+      <c r="L412" s="21">
+        <f t="shared" si="7"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413">
@@ -16741,7 +18076,10 @@
       <c r="K413" t="s">
         <v>30</v>
       </c>
-      <c r="L413" s="16"/>
+      <c r="L413" s="21">
+        <f t="shared" si="7"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414">
@@ -16777,7 +18115,10 @@
       <c r="K414" t="s">
         <v>30</v>
       </c>
-      <c r="L414" s="16"/>
+      <c r="L414" s="21">
+        <f t="shared" si="7"/>
+        <v>0.61799999999999999</v>
+      </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415">
@@ -16813,7 +18154,10 @@
       <c r="K415" t="s">
         <v>30</v>
       </c>
-      <c r="L415" s="16"/>
+      <c r="L415" s="21">
+        <f t="shared" si="7"/>
+        <v>0.40500000000000003</v>
+      </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416">
@@ -16849,7 +18193,10 @@
       <c r="K416" t="s">
         <v>30</v>
       </c>
-      <c r="L416" s="16"/>
+      <c r="L416" s="21">
+        <f t="shared" si="7"/>
+        <v>0.373</v>
+      </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417">
@@ -16885,7 +18232,10 @@
       <c r="K417" t="s">
         <v>30</v>
       </c>
-      <c r="L417" s="16"/>
+      <c r="L417" s="21">
+        <f t="shared" si="7"/>
+        <v>0.223</v>
+      </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418">
@@ -16921,7 +18271,10 @@
       <c r="K418" t="s">
         <v>30</v>
       </c>
-      <c r="L418" s="16"/>
+      <c r="L418" s="21">
+        <f t="shared" si="7"/>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419">
@@ -16957,7 +18310,10 @@
       <c r="K419" t="s">
         <v>30</v>
       </c>
-      <c r="L419" s="16"/>
+      <c r="L419" s="21">
+        <f t="shared" si="7"/>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420">
@@ -16993,7 +18349,10 @@
       <c r="K420" t="s">
         <v>30</v>
       </c>
-      <c r="L420" s="16"/>
+      <c r="L420" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421">
@@ -17029,7 +18388,10 @@
       <c r="K421" t="s">
         <v>30</v>
       </c>
-      <c r="L421" s="16"/>
+      <c r="L421" s="21">
+        <f t="shared" si="7"/>
+        <v>0.214</v>
+      </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422">
@@ -17065,7 +18427,10 @@
       <c r="K422" t="s">
         <v>30</v>
       </c>
-      <c r="L422" s="16"/>
+      <c r="L422" s="21">
+        <f t="shared" si="7"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423">
@@ -17101,7 +18466,10 @@
       <c r="K423" t="s">
         <v>30</v>
       </c>
-      <c r="L423" s="16"/>
+      <c r="L423" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424">
@@ -17137,7 +18505,10 @@
       <c r="K424" t="s">
         <v>30</v>
       </c>
-      <c r="L424" s="16"/>
+      <c r="L424" s="21">
+        <f t="shared" si="7"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425">
@@ -17173,7 +18544,10 @@
       <c r="K425" t="s">
         <v>30</v>
       </c>
-      <c r="L425" s="16"/>
+      <c r="L425" s="21">
+        <f t="shared" si="7"/>
+        <v>0.53500000000000003</v>
+      </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426">
@@ -17209,7 +18583,10 @@
       <c r="K426" t="s">
         <v>30</v>
       </c>
-      <c r="L426" s="16"/>
+      <c r="L426" s="21">
+        <f t="shared" si="7"/>
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427">
@@ -17245,7 +18622,10 @@
       <c r="K427" t="s">
         <v>30</v>
       </c>
-      <c r="L427" s="16"/>
+      <c r="L427" s="21">
+        <f t="shared" si="7"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428">
@@ -17281,7 +18661,10 @@
       <c r="K428" t="s">
         <v>30</v>
       </c>
-      <c r="L428" s="16"/>
+      <c r="L428" s="21">
+        <f t="shared" si="7"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429">
@@ -17317,7 +18700,10 @@
       <c r="K429" t="s">
         <v>30</v>
       </c>
-      <c r="L429" s="16"/>
+      <c r="L429" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430">
@@ -17353,7 +18739,10 @@
       <c r="K430" t="s">
         <v>30</v>
       </c>
-      <c r="L430" s="16"/>
+      <c r="L430" s="21">
+        <f t="shared" si="7"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431">
@@ -17389,7 +18778,10 @@
       <c r="K431" t="s">
         <v>30</v>
       </c>
-      <c r="L431" s="16"/>
+      <c r="L431" s="21">
+        <f t="shared" si="7"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432">
@@ -17425,7 +18817,10 @@
       <c r="K432" t="s">
         <v>35</v>
       </c>
-      <c r="L432" s="16"/>
+      <c r="L432" s="21">
+        <f t="shared" si="7"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433">
@@ -17461,7 +18856,10 @@
       <c r="K433" t="s">
         <v>30</v>
       </c>
-      <c r="L433" s="16"/>
+      <c r="L433" s="21">
+        <f t="shared" si="7"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434">
@@ -17497,7 +18895,10 @@
       <c r="K434" t="s">
         <v>30</v>
       </c>
-      <c r="L434" s="16"/>
+      <c r="L434" s="21">
+        <f t="shared" si="7"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435">
@@ -17533,7 +18934,10 @@
       <c r="K435" t="s">
         <v>30</v>
       </c>
-      <c r="L435" s="16"/>
+      <c r="L435" s="21">
+        <f t="shared" si="7"/>
+        <v>0.501</v>
+      </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436">
@@ -17569,7 +18973,10 @@
       <c r="K436" t="s">
         <v>30</v>
       </c>
-      <c r="L436" s="16"/>
+      <c r="L436" s="21">
+        <f t="shared" si="7"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437">
@@ -17605,7 +19012,10 @@
       <c r="K437" t="s">
         <v>30</v>
       </c>
-      <c r="L437" s="16"/>
+      <c r="L437" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438">
@@ -17641,7 +19051,10 @@
       <c r="K438" t="s">
         <v>30</v>
       </c>
-      <c r="L438" s="16"/>
+      <c r="L438" s="21">
+        <f t="shared" si="7"/>
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439">
@@ -17677,7 +19090,10 @@
       <c r="K439" t="s">
         <v>30</v>
       </c>
-      <c r="L439" s="16"/>
+      <c r="L439" s="21">
+        <f t="shared" si="7"/>
+        <v>0.66900000000000004</v>
+      </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440">
@@ -17713,7 +19129,10 @@
       <c r="K440" t="s">
         <v>30</v>
       </c>
-      <c r="L440" s="16"/>
+      <c r="L440" s="21">
+        <f t="shared" si="7"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441">
@@ -17749,7 +19168,10 @@
       <c r="K441" t="s">
         <v>30</v>
       </c>
-      <c r="L441" s="16"/>
+      <c r="L441" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442">
@@ -17785,7 +19207,10 @@
       <c r="K442" t="s">
         <v>30</v>
       </c>
-      <c r="L442" s="16"/>
+      <c r="L442" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443">
@@ -17821,7 +19246,10 @@
       <c r="K443" t="s">
         <v>30</v>
       </c>
-      <c r="L443" s="16"/>
+      <c r="L443" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444">
@@ -17857,7 +19285,10 @@
       <c r="K444" t="s">
         <v>30</v>
       </c>
-      <c r="L444" s="16"/>
+      <c r="L444" s="21">
+        <f t="shared" si="7"/>
+        <v>0.93799999999999994</v>
+      </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445">
@@ -17893,7 +19324,10 @@
       <c r="K445" t="s">
         <v>30</v>
       </c>
-      <c r="L445" s="16"/>
+      <c r="L445" s="21">
+        <f t="shared" si="7"/>
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446">
@@ -17929,7 +19363,10 @@
       <c r="K446" t="s">
         <v>30</v>
       </c>
-      <c r="L446" s="16"/>
+      <c r="L446" s="21">
+        <f t="shared" si="7"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447">
@@ -17965,7 +19402,10 @@
       <c r="K447" t="s">
         <v>30</v>
       </c>
-      <c r="L447" s="16"/>
+      <c r="L447" s="21">
+        <f t="shared" si="7"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448">
@@ -18001,7 +19441,10 @@
       <c r="K448" t="s">
         <v>30</v>
       </c>
-      <c r="L448" s="16"/>
+      <c r="L448" s="21">
+        <f t="shared" si="7"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449">
@@ -18037,7 +19480,10 @@
       <c r="K449" t="s">
         <v>30</v>
       </c>
-      <c r="L449" s="16"/>
+      <c r="L449" s="21">
+        <f t="shared" si="7"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450">
@@ -18073,7 +19519,10 @@
       <c r="K450" t="s">
         <v>30</v>
       </c>
-      <c r="L450" s="16"/>
+      <c r="L450" s="21">
+        <f t="shared" si="7"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451">
@@ -18109,7 +19558,10 @@
       <c r="K451" t="s">
         <v>30</v>
       </c>
-      <c r="L451" s="16"/>
+      <c r="L451" s="21">
+        <f t="shared" ref="L451:L514" si="8">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G451)</f>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452">
@@ -18145,7 +19597,10 @@
       <c r="K452" t="s">
         <v>30</v>
       </c>
-      <c r="L452" s="16"/>
+      <c r="L452" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453">
@@ -18181,7 +19636,10 @@
       <c r="K453" t="s">
         <v>30</v>
       </c>
-      <c r="L453" s="16"/>
+      <c r="L453" s="21">
+        <f t="shared" si="8"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454">
@@ -18217,7 +19675,10 @@
       <c r="K454" t="s">
         <v>30</v>
       </c>
-      <c r="L454" s="16"/>
+      <c r="L454" s="21">
+        <f t="shared" si="8"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455">
@@ -18253,7 +19714,10 @@
       <c r="K455" t="s">
         <v>30</v>
       </c>
-      <c r="L455" s="16"/>
+      <c r="L455" s="21">
+        <f t="shared" si="8"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456">
@@ -18289,7 +19753,10 @@
       <c r="K456" t="s">
         <v>35</v>
       </c>
-      <c r="L456" s="16"/>
+      <c r="L456" s="21">
+        <f t="shared" si="8"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457">
@@ -18325,7 +19792,10 @@
       <c r="K457" t="s">
         <v>30</v>
       </c>
-      <c r="L457" s="16"/>
+      <c r="L457" s="21">
+        <f t="shared" si="8"/>
+        <v>0.85699999999999998</v>
+      </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458">
@@ -18361,7 +19831,10 @@
       <c r="K458" t="s">
         <v>30</v>
       </c>
-      <c r="L458" s="16"/>
+      <c r="L458" s="21">
+        <f t="shared" si="8"/>
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459">
@@ -18397,7 +19870,10 @@
       <c r="K459" t="s">
         <v>30</v>
       </c>
-      <c r="L459" s="16"/>
+      <c r="L459" s="21">
+        <f t="shared" si="8"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460">
@@ -18433,7 +19909,10 @@
       <c r="K460" t="s">
         <v>30</v>
       </c>
-      <c r="L460" s="16"/>
+      <c r="L460" s="21">
+        <f t="shared" si="8"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461">
@@ -18469,7 +19948,10 @@
       <c r="K461" t="s">
         <v>30</v>
       </c>
-      <c r="L461" s="16"/>
+      <c r="L461" s="21">
+        <f t="shared" si="8"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462">
@@ -18505,7 +19987,10 @@
       <c r="K462" t="s">
         <v>30</v>
       </c>
-      <c r="L462" s="16"/>
+      <c r="L462" s="21">
+        <f t="shared" si="8"/>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463">
@@ -18541,7 +20026,10 @@
       <c r="K463" t="s">
         <v>30</v>
       </c>
-      <c r="L463" s="16"/>
+      <c r="L463" s="21">
+        <f t="shared" si="8"/>
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464">
@@ -18577,7 +20065,10 @@
       <c r="K464" t="s">
         <v>30</v>
       </c>
-      <c r="L464" s="16"/>
+      <c r="L464" s="21">
+        <f t="shared" si="8"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465">
@@ -18613,7 +20104,10 @@
       <c r="K465" t="s">
         <v>30</v>
       </c>
-      <c r="L465" s="16"/>
+      <c r="L465" s="21">
+        <f t="shared" si="8"/>
+        <v>0.53500000000000003</v>
+      </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466">
@@ -18649,7 +20143,10 @@
       <c r="K466" t="s">
         <v>30</v>
       </c>
-      <c r="L466" s="16"/>
+      <c r="L466" s="21">
+        <f t="shared" si="8"/>
+        <v>0.27</v>
+      </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467">
@@ -18685,7 +20182,10 @@
       <c r="K467" t="s">
         <v>30</v>
       </c>
-      <c r="L467" s="16"/>
+      <c r="L467" s="21">
+        <f t="shared" si="8"/>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468">
@@ -18721,7 +20221,10 @@
       <c r="K468" t="s">
         <v>30</v>
       </c>
-      <c r="L468" s="16"/>
+      <c r="L468" s="21">
+        <f t="shared" si="8"/>
+        <v>0.53500000000000003</v>
+      </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469">
@@ -18757,7 +20260,10 @@
       <c r="K469" t="s">
         <v>30</v>
       </c>
-      <c r="L469" s="16"/>
+      <c r="L469" s="21">
+        <f t="shared" si="8"/>
+        <v>0.69099999999999995</v>
+      </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470">
@@ -18793,7 +20299,10 @@
       <c r="K470" t="s">
         <v>30</v>
       </c>
-      <c r="L470" s="16"/>
+      <c r="L470" s="21">
+        <f t="shared" si="8"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471">
@@ -18829,7 +20338,10 @@
       <c r="K471" t="s">
         <v>30</v>
       </c>
-      <c r="L471" s="16"/>
+      <c r="L471" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472">
@@ -18865,7 +20377,10 @@
       <c r="K472" t="s">
         <v>30</v>
       </c>
-      <c r="L472" s="16"/>
+      <c r="L472" s="21">
+        <f t="shared" si="8"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473">
@@ -18901,7 +20416,10 @@
       <c r="K473" t="s">
         <v>30</v>
       </c>
-      <c r="L473" s="16"/>
+      <c r="L473" s="21">
+        <f t="shared" si="8"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474">
@@ -18937,7 +20455,10 @@
       <c r="K474" t="s">
         <v>30</v>
       </c>
-      <c r="L474" s="16"/>
+      <c r="L474" s="21">
+        <f t="shared" si="8"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475">
@@ -18973,7 +20494,10 @@
       <c r="K475" t="s">
         <v>30</v>
       </c>
-      <c r="L475" s="16"/>
+      <c r="L475" s="21">
+        <f t="shared" si="8"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476">
@@ -19009,7 +20533,10 @@
       <c r="K476" t="s">
         <v>30</v>
       </c>
-      <c r="L476" s="16"/>
+      <c r="L476" s="21">
+        <f t="shared" si="8"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477">
@@ -19045,7 +20572,10 @@
       <c r="K477" t="s">
         <v>35</v>
       </c>
-      <c r="L477" s="16"/>
+      <c r="L477" s="21">
+        <f t="shared" si="8"/>
+        <v>0.187</v>
+      </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478">
@@ -19081,7 +20611,10 @@
       <c r="K478" t="s">
         <v>30</v>
       </c>
-      <c r="L478" s="16"/>
+      <c r="L478" s="21">
+        <f t="shared" si="8"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479">
@@ -19117,7 +20650,10 @@
       <c r="K479" t="s">
         <v>30</v>
       </c>
-      <c r="L479" s="16"/>
+      <c r="L479" s="21">
+        <f t="shared" si="8"/>
+        <v>0.69099999999999995</v>
+      </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480">
@@ -19153,7 +20689,10 @@
       <c r="K480" t="s">
         <v>35</v>
       </c>
-      <c r="L480" s="16"/>
+      <c r="L480" s="21">
+        <f t="shared" si="8"/>
+        <v>0.26400000000000001</v>
+      </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481">
@@ -19189,7 +20728,10 @@
       <c r="K481" t="s">
         <v>30</v>
       </c>
-      <c r="L481" s="16"/>
+      <c r="L481" s="21">
+        <f t="shared" si="8"/>
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482">
@@ -19225,7 +20767,10 @@
       <c r="K482" t="s">
         <v>30</v>
       </c>
-      <c r="L482" s="16"/>
+      <c r="L482" s="21">
+        <f t="shared" si="8"/>
+        <v>0.626</v>
+      </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483">
@@ -19261,7 +20806,10 @@
       <c r="K483" t="s">
         <v>30</v>
       </c>
-      <c r="L483" s="16"/>
+      <c r="L483" s="21">
+        <f t="shared" si="8"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484">
@@ -19297,7 +20845,10 @@
       <c r="K484" t="s">
         <v>30</v>
       </c>
-      <c r="L484" s="16"/>
+      <c r="L484" s="21">
+        <f t="shared" si="8"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485">
@@ -19333,7 +20884,10 @@
       <c r="K485" t="s">
         <v>30</v>
       </c>
-      <c r="L485" s="16"/>
+      <c r="L485" s="21">
+        <f t="shared" si="8"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486">
@@ -19369,7 +20923,10 @@
       <c r="K486" t="s">
         <v>30</v>
       </c>
-      <c r="L486" s="16"/>
+      <c r="L486" s="21">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487">
@@ -19405,7 +20962,10 @@
       <c r="K487" t="s">
         <v>30</v>
       </c>
-      <c r="L487" s="16"/>
+      <c r="L487" s="21">
+        <f t="shared" si="8"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488">
@@ -19441,7 +21001,10 @@
       <c r="K488" t="s">
         <v>30</v>
       </c>
-      <c r="L488" s="16"/>
+      <c r="L488" s="21">
+        <f t="shared" si="8"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489">
@@ -19477,7 +21040,10 @@
       <c r="K489" t="s">
         <v>54</v>
       </c>
-      <c r="L489" s="16"/>
+      <c r="L489" s="21">
+        <f t="shared" si="8"/>
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490">
@@ -19513,7 +21079,10 @@
       <c r="K490" t="s">
         <v>30</v>
       </c>
-      <c r="L490" s="16"/>
+      <c r="L490" s="21">
+        <f t="shared" si="8"/>
+        <v>0.66600000000000004</v>
+      </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491">
@@ -19549,7 +21118,10 @@
       <c r="K491" t="s">
         <v>30</v>
       </c>
-      <c r="L491" s="16"/>
+      <c r="L491" s="21">
+        <f t="shared" si="8"/>
+        <v>0.371</v>
+      </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492">
@@ -19585,7 +21157,10 @@
       <c r="K492" t="s">
         <v>30</v>
       </c>
-      <c r="L492" s="16"/>
+      <c r="L492" s="21">
+        <f t="shared" si="8"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493">
@@ -19621,7 +21196,10 @@
       <c r="K493" t="s">
         <v>30</v>
       </c>
-      <c r="L493" s="16"/>
+      <c r="L493" s="21">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494">
@@ -19657,7 +21235,10 @@
       <c r="K494" t="s">
         <v>30</v>
       </c>
-      <c r="L494" s="16"/>
+      <c r="L494" s="21">
+        <f t="shared" si="8"/>
+        <v>0.108</v>
+      </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495">
@@ -19693,7 +21274,10 @@
       <c r="K495" t="s">
         <v>30</v>
       </c>
-      <c r="L495" s="16"/>
+      <c r="L495" s="21">
+        <f t="shared" si="8"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496">
@@ -19729,7 +21313,10 @@
       <c r="K496" t="s">
         <v>30</v>
       </c>
-      <c r="L496" s="16"/>
+      <c r="L496" s="21">
+        <f t="shared" si="8"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497">
@@ -19765,7 +21352,10 @@
       <c r="K497" t="s">
         <v>30</v>
       </c>
-      <c r="L497" s="16"/>
+      <c r="L497" s="21">
+        <f t="shared" si="8"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498">
@@ -19801,7 +21391,10 @@
       <c r="K498" t="s">
         <v>30</v>
       </c>
-      <c r="L498" s="16"/>
+      <c r="L498" s="21">
+        <f t="shared" si="8"/>
+        <v>0.26600000000000001</v>
+      </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499">
@@ -19837,7 +21430,10 @@
       <c r="K499" t="s">
         <v>30</v>
       </c>
-      <c r="L499" s="16"/>
+      <c r="L499" s="21">
+        <f t="shared" si="8"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500">
@@ -19873,7 +21469,10 @@
       <c r="K500" t="s">
         <v>30</v>
       </c>
-      <c r="L500" s="16"/>
+      <c r="L500" s="21">
+        <f t="shared" si="8"/>
+        <v>0.93600000000000005</v>
+      </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501">
@@ -19909,7 +21508,10 @@
       <c r="K501" t="s">
         <v>30</v>
       </c>
-      <c r="L501" s="16"/>
+      <c r="L501" s="21">
+        <f t="shared" si="8"/>
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502">
@@ -19945,7 +21547,10 @@
       <c r="K502" t="s">
         <v>30</v>
       </c>
-      <c r="L502" s="16"/>
+      <c r="L502" s="21">
+        <f t="shared" si="8"/>
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503">
@@ -19981,7 +21586,10 @@
       <c r="K503" t="s">
         <v>30</v>
       </c>
-      <c r="L503" s="16"/>
+      <c r="L503" s="21">
+        <f t="shared" si="8"/>
+        <v>0.34899999999999998</v>
+      </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504">
@@ -20017,7 +21625,10 @@
       <c r="K504" t="s">
         <v>54</v>
       </c>
-      <c r="L504" s="16"/>
+      <c r="L504" s="21">
+        <f t="shared" si="8"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505">
@@ -20053,7 +21664,10 @@
       <c r="K505" t="s">
         <v>30</v>
       </c>
-      <c r="L505" s="16"/>
+      <c r="L505" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506">
@@ -20089,7 +21703,10 @@
       <c r="K506" t="s">
         <v>30</v>
       </c>
-      <c r="L506" s="16"/>
+      <c r="L506" s="21">
+        <f t="shared" si="8"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507">
@@ -20125,7 +21742,10 @@
       <c r="K507" t="s">
         <v>30</v>
       </c>
-      <c r="L507" s="16"/>
+      <c r="L507" s="21">
+        <f t="shared" si="8"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508">
@@ -20161,7 +21781,10 @@
       <c r="K508" t="s">
         <v>30</v>
       </c>
-      <c r="L508" s="16"/>
+      <c r="L508" s="21">
+        <f t="shared" si="8"/>
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509">
@@ -20197,7 +21820,10 @@
       <c r="K509" t="s">
         <v>30</v>
       </c>
-      <c r="L509" s="16"/>
+      <c r="L509" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510">
@@ -20233,7 +21859,10 @@
       <c r="K510" t="s">
         <v>30</v>
       </c>
-      <c r="L510" s="16"/>
+      <c r="L510" s="21">
+        <f t="shared" si="8"/>
+        <v>0.56399999999999995</v>
+      </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511">
@@ -20269,7 +21898,10 @@
       <c r="K511" t="s">
         <v>30</v>
       </c>
-      <c r="L511" s="16"/>
+      <c r="L511" s="21">
+        <f t="shared" si="8"/>
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512">
@@ -20305,7 +21937,10 @@
       <c r="K512" t="s">
         <v>30</v>
       </c>
-      <c r="L512" s="16"/>
+      <c r="L512" s="21">
+        <f t="shared" si="8"/>
+        <v>0.34</v>
+      </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513">
@@ -20341,7 +21976,10 @@
       <c r="K513" t="s">
         <v>30</v>
       </c>
-      <c r="L513" s="16"/>
+      <c r="L513" s="21">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514">
@@ -20377,7 +22015,10 @@
       <c r="K514" t="s">
         <v>30</v>
       </c>
-      <c r="L514" s="16"/>
+      <c r="L514" s="21">
+        <f t="shared" si="8"/>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515">
@@ -20413,7 +22054,10 @@
       <c r="K515" t="s">
         <v>30</v>
       </c>
-      <c r="L515" s="16"/>
+      <c r="L515" s="21">
+        <f t="shared" ref="L515:L578" si="9">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G515)</f>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516">
@@ -20449,7 +22093,10 @@
       <c r="K516" t="s">
         <v>30</v>
       </c>
-      <c r="L516" s="16"/>
+      <c r="L516" s="21">
+        <f t="shared" si="9"/>
+        <v>0.183</v>
+      </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517">
@@ -20485,7 +22132,10 @@
       <c r="K517" t="s">
         <v>35</v>
       </c>
-      <c r="L517" s="16"/>
+      <c r="L517" s="21">
+        <f t="shared" si="9"/>
+        <v>0.152</v>
+      </c>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518">
@@ -20521,7 +22171,10 @@
       <c r="K518" t="s">
         <v>30</v>
       </c>
-      <c r="L518" s="16"/>
+      <c r="L518" s="21">
+        <f t="shared" si="9"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519">
@@ -20557,7 +22210,10 @@
       <c r="K519" t="s">
         <v>30</v>
       </c>
-      <c r="L519" s="16"/>
+      <c r="L519" s="21">
+        <f t="shared" si="9"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520">
@@ -20593,7 +22249,10 @@
       <c r="K520" t="s">
         <v>30</v>
       </c>
-      <c r="L520" s="16"/>
+      <c r="L520" s="21">
+        <f t="shared" si="9"/>
+        <v>0.108</v>
+      </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521">
@@ -20629,7 +22288,10 @@
       <c r="K521" t="s">
         <v>30</v>
       </c>
-      <c r="L521" s="16"/>
+      <c r="L521" s="21">
+        <f t="shared" si="9"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522">
@@ -20665,7 +22327,10 @@
       <c r="K522" t="s">
         <v>54</v>
       </c>
-      <c r="L522" s="16"/>
+      <c r="L522" s="21">
+        <f t="shared" si="9"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523">
@@ -20701,7 +22366,10 @@
       <c r="K523" t="s">
         <v>30</v>
       </c>
-      <c r="L523" s="16"/>
+      <c r="L523" s="21">
+        <f t="shared" si="9"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524">
@@ -20737,7 +22405,10 @@
       <c r="K524" t="s">
         <v>35</v>
       </c>
-      <c r="L524" s="16"/>
+      <c r="L524" s="21">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525">
@@ -20773,7 +22444,10 @@
       <c r="K525" t="s">
         <v>35</v>
       </c>
-      <c r="L525" s="16"/>
+      <c r="L525" s="21">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526">
@@ -20809,7 +22483,10 @@
       <c r="K526" t="s">
         <v>30</v>
       </c>
-      <c r="L526" s="16"/>
+      <c r="L526" s="21">
+        <f t="shared" si="9"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527">
@@ -20845,7 +22522,10 @@
       <c r="K527" t="s">
         <v>30</v>
       </c>
-      <c r="L527" s="16"/>
+      <c r="L527" s="21">
+        <f t="shared" si="9"/>
+        <v>0.41899999999999998</v>
+      </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528">
@@ -20881,7 +22561,10 @@
       <c r="K528" t="s">
         <v>30</v>
       </c>
-      <c r="L528" s="16"/>
+      <c r="L528" s="21">
+        <f t="shared" si="9"/>
+        <v>0.20899999999999999</v>
+      </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529">
@@ -20917,7 +22600,10 @@
       <c r="K529" t="s">
         <v>30</v>
       </c>
-      <c r="L529" s="16"/>
+      <c r="L529" s="21">
+        <f t="shared" si="9"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530">
@@ -20953,7 +22639,10 @@
       <c r="K530" t="s">
         <v>30</v>
       </c>
-      <c r="L530" s="16"/>
+      <c r="L530" s="21">
+        <f t="shared" si="9"/>
+        <v>0.41099999999999998</v>
+      </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531">
@@ -20989,7 +22678,10 @@
       <c r="K531" t="s">
         <v>30</v>
       </c>
-      <c r="L531" s="16"/>
+      <c r="L531" s="21">
+        <f t="shared" si="9"/>
+        <v>0.108</v>
+      </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532">
@@ -21025,7 +22717,10 @@
       <c r="K532" t="s">
         <v>30</v>
       </c>
-      <c r="L532" s="16"/>
+      <c r="L532" s="21">
+        <f t="shared" si="9"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533">
@@ -21061,7 +22756,10 @@
       <c r="K533" t="s">
         <v>35</v>
       </c>
-      <c r="L533" s="16"/>
+      <c r="L533" s="21">
+        <f t="shared" si="9"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534">
@@ -21097,7 +22795,10 @@
       <c r="K534" t="s">
         <v>30</v>
       </c>
-      <c r="L534" s="16"/>
+      <c r="L534" s="21">
+        <f t="shared" si="9"/>
+        <v>0.79</v>
+      </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535">
@@ -21133,7 +22834,10 @@
       <c r="K535" t="s">
         <v>30</v>
       </c>
-      <c r="L535" s="16"/>
+      <c r="L535" s="21">
+        <f t="shared" si="9"/>
+        <v>0.59499999999999997</v>
+      </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536">
@@ -21169,7 +22873,10 @@
       <c r="K536" t="s">
         <v>30</v>
       </c>
-      <c r="L536" s="16"/>
+      <c r="L536" s="21">
+        <f t="shared" si="9"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537">
@@ -21205,7 +22912,10 @@
       <c r="K537" t="s">
         <v>35</v>
       </c>
-      <c r="L537" s="16"/>
+      <c r="L537" s="21">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538">
@@ -21241,7 +22951,10 @@
       <c r="K538" t="s">
         <v>35</v>
       </c>
-      <c r="L538" s="16"/>
+      <c r="L538" s="21">
+        <f t="shared" si="9"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539">
@@ -21277,7 +22990,10 @@
       <c r="K539" t="s">
         <v>30</v>
       </c>
-      <c r="L539" s="16"/>
+      <c r="L539" s="21">
+        <f t="shared" si="9"/>
+        <v>0.754</v>
+      </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540">
@@ -21313,7 +23029,10 @@
       <c r="K540" t="s">
         <v>30</v>
       </c>
-      <c r="L540" s="16"/>
+      <c r="L540" s="21">
+        <f t="shared" si="9"/>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541">
@@ -21349,7 +23068,10 @@
       <c r="K541" t="s">
         <v>35</v>
       </c>
-      <c r="L541" s="16"/>
+      <c r="L541" s="21">
+        <f t="shared" si="9"/>
+        <v>0.40799999999999997</v>
+      </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542">
@@ -21385,7 +23107,10 @@
       <c r="K542" t="s">
         <v>35</v>
       </c>
-      <c r="L542" s="16"/>
+      <c r="L542" s="21">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543">
@@ -21421,7 +23146,10 @@
       <c r="K543" t="s">
         <v>30</v>
       </c>
-      <c r="L543" s="16"/>
+      <c r="L543" s="21">
+        <f t="shared" si="9"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544">
@@ -21457,7 +23185,10 @@
       <c r="K544" t="s">
         <v>35</v>
       </c>
-      <c r="L544" s="16"/>
+      <c r="L544" s="21">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545">
@@ -21493,7 +23224,10 @@
       <c r="K545" t="s">
         <v>30</v>
       </c>
-      <c r="L545" s="16"/>
+      <c r="L545" s="21">
+        <f t="shared" si="9"/>
+        <v>0.30099999999999999</v>
+      </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546">
@@ -21529,7 +23263,10 @@
       <c r="K546" t="s">
         <v>30</v>
       </c>
-      <c r="L546" s="16"/>
+      <c r="L546" s="21">
+        <f t="shared" si="9"/>
+        <v>0.20399999999999999</v>
+      </c>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547">
@@ -21565,7 +23302,10 @@
       <c r="K547" t="s">
         <v>35</v>
       </c>
-      <c r="L547" s="16"/>
+      <c r="L547" s="21">
+        <f t="shared" si="9"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548">
@@ -21601,7 +23341,10 @@
       <c r="K548" t="s">
         <v>35</v>
       </c>
-      <c r="L548" s="16"/>
+      <c r="L548" s="21">
+        <f t="shared" si="9"/>
+        <v>0.59499999999999997</v>
+      </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549">
@@ -21637,7 +23380,10 @@
       <c r="K549" t="s">
         <v>35</v>
       </c>
-      <c r="L549" s="16"/>
+      <c r="L549" s="21">
+        <f t="shared" si="9"/>
+        <v>0.59499999999999997</v>
+      </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550">
@@ -21673,7 +23419,10 @@
       <c r="K550" t="s">
         <v>30</v>
       </c>
-      <c r="L550" s="16"/>
+      <c r="L550" s="21">
+        <f t="shared" si="9"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551">
@@ -21709,7 +23458,10 @@
       <c r="K551" t="s">
         <v>54</v>
       </c>
-      <c r="L551" s="16"/>
+      <c r="L551" s="21">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552">
@@ -21745,7 +23497,10 @@
       <c r="K552" t="s">
         <v>30</v>
       </c>
-      <c r="L552" s="16"/>
+      <c r="L552" s="21">
+        <f t="shared" si="9"/>
+        <v>0.13200000000000001</v>
+      </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553">
@@ -21781,7 +23536,10 @@
       <c r="K553" t="s">
         <v>35</v>
       </c>
-      <c r="L553" s="16"/>
+      <c r="L553" s="21">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554">
@@ -21817,7 +23575,10 @@
       <c r="K554" t="s">
         <v>30</v>
       </c>
-      <c r="L554" s="16"/>
+      <c r="L554" s="21">
+        <f t="shared" si="9"/>
+        <v>0.98499999999999999</v>
+      </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555">
@@ -21853,7 +23614,10 @@
       <c r="K555" t="s">
         <v>30</v>
       </c>
-      <c r="L555" s="16"/>
+      <c r="L555" s="21">
+        <f t="shared" si="9"/>
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556">
@@ -21889,7 +23653,10 @@
       <c r="K556" t="s">
         <v>30</v>
       </c>
-      <c r="L556" s="16"/>
+      <c r="L556" s="21">
+        <f t="shared" si="9"/>
+        <v>0.623</v>
+      </c>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557">
@@ -21925,7 +23692,10 @@
       <c r="K557" t="s">
         <v>30</v>
       </c>
-      <c r="L557" s="16"/>
+      <c r="L557" s="21">
+        <f t="shared" si="9"/>
+        <v>0.41599999999999998</v>
+      </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558">
@@ -21961,7 +23731,10 @@
       <c r="K558" t="s">
         <v>30</v>
       </c>
-      <c r="L558" s="16"/>
+      <c r="L558" s="21">
+        <f t="shared" si="9"/>
+        <v>0.34200000000000003</v>
+      </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559">
@@ -21997,7 +23770,10 @@
       <c r="K559" t="s">
         <v>30</v>
       </c>
-      <c r="L559" s="16"/>
+      <c r="L559" s="21">
+        <f t="shared" si="9"/>
+        <v>0.17799999999999999</v>
+      </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560">
@@ -22033,7 +23809,10 @@
       <c r="K560" t="s">
         <v>30</v>
       </c>
-      <c r="L560" s="16"/>
+      <c r="L560" s="21">
+        <f t="shared" si="9"/>
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561">
@@ -22069,7 +23848,10 @@
       <c r="K561" t="s">
         <v>30</v>
       </c>
-      <c r="L561" s="16"/>
+      <c r="L561" s="21">
+        <f t="shared" si="9"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562">
@@ -22105,7 +23887,10 @@
       <c r="K562" t="s">
         <v>54</v>
       </c>
-      <c r="L562" s="16"/>
+      <c r="L562" s="21">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563">
@@ -22141,7 +23926,10 @@
       <c r="K563" t="s">
         <v>54</v>
       </c>
-      <c r="L563" s="16"/>
+      <c r="L563" s="21">
+        <f t="shared" si="9"/>
+        <v>0.108</v>
+      </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564">
@@ -22177,7 +23965,10 @@
       <c r="K564" t="s">
         <v>35</v>
       </c>
-      <c r="L564" s="16"/>
+      <c r="L564" s="21">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565">
@@ -22213,7 +24004,10 @@
       <c r="K565" t="s">
         <v>30</v>
       </c>
-      <c r="L565" s="16"/>
+      <c r="L565" s="21">
+        <f t="shared" si="9"/>
+        <v>0.98499999999999999</v>
+      </c>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566">
@@ -22249,7 +24043,10 @@
       <c r="K566" t="s">
         <v>30</v>
       </c>
-      <c r="L566" s="16"/>
+      <c r="L566" s="21">
+        <f t="shared" si="9"/>
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567">
@@ -22285,7 +24082,10 @@
       <c r="K567" t="s">
         <v>35</v>
       </c>
-      <c r="L567" s="16"/>
+      <c r="L567" s="21">
+        <f t="shared" si="9"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568">
@@ -22321,7 +24121,10 @@
       <c r="K568" t="s">
         <v>54</v>
       </c>
-      <c r="L568" s="16"/>
+      <c r="L568" s="21">
+        <f t="shared" si="9"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569">
@@ -22357,7 +24160,10 @@
       <c r="K569" t="s">
         <v>30</v>
       </c>
-      <c r="L569" s="16"/>
+      <c r="L569" s="21">
+        <f t="shared" si="9"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570">
@@ -22393,7 +24199,10 @@
       <c r="K570" t="s">
         <v>30</v>
       </c>
-      <c r="L570" s="16"/>
+      <c r="L570" s="21">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571">
@@ -22429,7 +24238,10 @@
       <c r="K571" t="s">
         <v>30</v>
       </c>
-      <c r="L571" s="16"/>
+      <c r="L571" s="21">
+        <f t="shared" si="9"/>
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572">
@@ -22465,7 +24277,10 @@
       <c r="K572" t="s">
         <v>30</v>
       </c>
-      <c r="L572" s="16"/>
+      <c r="L572" s="21">
+        <f t="shared" si="9"/>
+        <v>0.376</v>
+      </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573">
@@ -22501,7 +24316,10 @@
       <c r="K573" t="s">
         <v>30</v>
       </c>
-      <c r="L573" s="16"/>
+      <c r="L573" s="21">
+        <f t="shared" si="9"/>
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574">
@@ -22537,7 +24355,10 @@
       <c r="K574" t="s">
         <v>30</v>
       </c>
-      <c r="L574" s="16"/>
+      <c r="L574" s="21">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575">
@@ -22573,7 +24394,10 @@
       <c r="K575" t="s">
         <v>30</v>
       </c>
-      <c r="L575" s="16"/>
+      <c r="L575" s="21">
+        <f t="shared" si="9"/>
+        <v>0.623</v>
+      </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576">
@@ -22609,7 +24433,10 @@
       <c r="K576" t="s">
         <v>30</v>
       </c>
-      <c r="L576" s="16"/>
+      <c r="L576" s="21">
+        <f t="shared" si="9"/>
+        <v>0.41599999999999998</v>
+      </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577">
@@ -22645,7 +24472,10 @@
       <c r="K577" t="s">
         <v>35</v>
       </c>
-      <c r="L577" s="16"/>
+      <c r="L577" s="21">
+        <f t="shared" si="9"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578">
@@ -22681,7 +24511,10 @@
       <c r="K578" t="s">
         <v>30</v>
       </c>
-      <c r="L578" s="16"/>
+      <c r="L578" s="21">
+        <f t="shared" si="9"/>
+        <v>0.20200000000000001</v>
+      </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579">
@@ -22717,7 +24550,10 @@
       <c r="K579" t="s">
         <v>30</v>
       </c>
-      <c r="L579" s="16"/>
+      <c r="L579" s="21">
+        <f t="shared" ref="L579:L642" si="10">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G579)</f>
+        <v>0.84</v>
+      </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580">
@@ -22753,7 +24589,10 @@
       <c r="K580" t="s">
         <v>30</v>
       </c>
-      <c r="L580" s="16"/>
+      <c r="L580" s="21">
+        <f t="shared" si="10"/>
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581">
@@ -22789,7 +24628,10 @@
       <c r="K581" t="s">
         <v>30</v>
       </c>
-      <c r="L581" s="16"/>
+      <c r="L581" s="21">
+        <f t="shared" si="10"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582">
@@ -22825,7 +24667,10 @@
       <c r="K582" t="s">
         <v>35</v>
       </c>
-      <c r="L582" s="16"/>
+      <c r="L582" s="21">
+        <f t="shared" si="10"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583">
@@ -22861,7 +24706,10 @@
       <c r="K583" t="s">
         <v>30</v>
       </c>
-      <c r="L583" s="16"/>
+      <c r="L583" s="21">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584">
@@ -22897,7 +24745,10 @@
       <c r="K584" t="s">
         <v>30</v>
       </c>
-      <c r="L584" s="16"/>
+      <c r="L584" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585">
@@ -22933,7 +24784,10 @@
       <c r="K585" t="s">
         <v>30</v>
       </c>
-      <c r="L585" s="16"/>
+      <c r="L585" s="21">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586">
@@ -22969,7 +24823,10 @@
       <c r="K586" t="s">
         <v>30</v>
       </c>
-      <c r="L586" s="16"/>
+      <c r="L586" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587">
@@ -23005,7 +24862,10 @@
       <c r="K587" t="s">
         <v>30</v>
       </c>
-      <c r="L587" s="16"/>
+      <c r="L587" s="21">
+        <f t="shared" si="10"/>
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588">
@@ -23041,7 +24901,10 @@
       <c r="K588" t="s">
         <v>30</v>
       </c>
-      <c r="L588" s="16"/>
+      <c r="L588" s="21">
+        <f t="shared" si="10"/>
+        <v>0.505</v>
+      </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589">
@@ -23077,7 +24940,10 @@
       <c r="K589" t="s">
         <v>30</v>
       </c>
-      <c r="L589" s="16"/>
+      <c r="L589" s="21">
+        <f t="shared" si="10"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590">
@@ -23113,7 +24979,10 @@
       <c r="K590" t="s">
         <v>30</v>
       </c>
-      <c r="L590" s="16"/>
+      <c r="L590" s="21">
+        <f t="shared" si="10"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591">
@@ -23149,7 +25018,10 @@
       <c r="K591" t="s">
         <v>30</v>
       </c>
-      <c r="L591" s="16"/>
+      <c r="L591" s="21">
+        <f t="shared" si="10"/>
+        <v>0.88500000000000001</v>
+      </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592">
@@ -23185,7 +25057,10 @@
       <c r="K592" t="s">
         <v>30</v>
       </c>
-      <c r="L592" s="16"/>
+      <c r="L592" s="21">
+        <f t="shared" si="10"/>
+        <v>0.73499999999999999</v>
+      </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593">
@@ -23221,7 +25096,10 @@
       <c r="K593" t="s">
         <v>30</v>
       </c>
-      <c r="L593" s="16"/>
+      <c r="L593" s="21">
+        <f t="shared" si="10"/>
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594">
@@ -23257,7 +25135,10 @@
       <c r="K594" t="s">
         <v>30</v>
       </c>
-      <c r="L594" s="16"/>
+      <c r="L594" s="21">
+        <f t="shared" si="10"/>
+        <v>0.376</v>
+      </c>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595">
@@ -23293,7 +25174,10 @@
       <c r="K595" t="s">
         <v>30</v>
       </c>
-      <c r="L595" s="16"/>
+      <c r="L595" s="21">
+        <f t="shared" si="10"/>
+        <v>9.4E-2</v>
+      </c>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596">
@@ -23329,7 +25213,10 @@
       <c r="K596" t="s">
         <v>30</v>
       </c>
-      <c r="L596" s="16"/>
+      <c r="L596" s="21">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597">
@@ -23365,7 +25252,10 @@
       <c r="K597" t="s">
         <v>30</v>
       </c>
-      <c r="L597" s="16"/>
+      <c r="L597" s="21">
+        <f t="shared" si="10"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598">
@@ -23401,7 +25291,10 @@
       <c r="K598" t="s">
         <v>30</v>
       </c>
-      <c r="L598" s="16"/>
+      <c r="L598" s="21">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599">
@@ -23437,7 +25330,10 @@
       <c r="K599" t="s">
         <v>30</v>
       </c>
-      <c r="L599" s="16"/>
+      <c r="L599" s="21">
+        <f t="shared" si="10"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600">
@@ -23473,7 +25369,10 @@
       <c r="K600" t="s">
         <v>30</v>
       </c>
-      <c r="L600" s="16"/>
+      <c r="L600" s="21">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601">
@@ -23509,7 +25408,10 @@
       <c r="K601" t="s">
         <v>54</v>
       </c>
-      <c r="L601" s="16"/>
+      <c r="L601" s="21">
+        <f t="shared" si="10"/>
+        <v>0.153</v>
+      </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602">
@@ -23545,7 +25447,10 @@
       <c r="K602" t="s">
         <v>54</v>
       </c>
-      <c r="L602" s="16"/>
+      <c r="L602" s="21">
+        <f t="shared" si="10"/>
+        <v>0.153</v>
+      </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A603">
@@ -23581,7 +25486,10 @@
       <c r="K603" t="s">
         <v>30</v>
       </c>
-      <c r="L603" s="16"/>
+      <c r="L603" s="21">
+        <f t="shared" si="10"/>
+        <v>0.67300000000000004</v>
+      </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604">
@@ -23617,7 +25525,10 @@
       <c r="K604" t="s">
         <v>30</v>
       </c>
-      <c r="L604" s="16"/>
+      <c r="L604" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605">
@@ -23653,7 +25564,10 @@
       <c r="K605" t="s">
         <v>30</v>
       </c>
-      <c r="L605" s="16"/>
+      <c r="L605" s="21">
+        <f t="shared" si="10"/>
+        <v>0.68799999999999994</v>
+      </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606">
@@ -23689,7 +25603,10 @@
       <c r="K606" t="s">
         <v>30</v>
       </c>
-      <c r="L606" s="16"/>
+      <c r="L606" s="21">
+        <f t="shared" si="10"/>
+        <v>0.52200000000000002</v>
+      </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607">
@@ -23725,7 +25642,10 @@
       <c r="K607" t="s">
         <v>30</v>
       </c>
-      <c r="L607" s="16"/>
+      <c r="L607" s="21">
+        <f t="shared" si="10"/>
+        <v>0.61799999999999999</v>
+      </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608">
@@ -23761,7 +25681,10 @@
       <c r="K608" t="s">
         <v>30</v>
       </c>
-      <c r="L608" s="16"/>
+      <c r="L608" s="21">
+        <f t="shared" si="10"/>
+        <v>0.41099999999999998</v>
+      </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609">
@@ -23797,7 +25720,10 @@
       <c r="K609" t="s">
         <v>30</v>
       </c>
-      <c r="L609" s="16"/>
+      <c r="L609" s="21">
+        <f t="shared" si="10"/>
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610">
@@ -23833,7 +25759,10 @@
       <c r="K610" t="s">
         <v>30</v>
       </c>
-      <c r="L610" s="16"/>
+      <c r="L610" s="21">
+        <f t="shared" si="10"/>
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611">
@@ -23869,7 +25798,10 @@
       <c r="K611" t="s">
         <v>30</v>
       </c>
-      <c r="L611" s="16"/>
+      <c r="L611" s="21">
+        <f t="shared" si="10"/>
+        <v>0.48299999999999998</v>
+      </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612">
@@ -23905,7 +25837,10 @@
       <c r="K612" t="s">
         <v>30</v>
       </c>
-      <c r="L612" s="16"/>
+      <c r="L612" s="21">
+        <f t="shared" si="10"/>
+        <v>0.316</v>
+      </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613">
@@ -23941,7 +25876,10 @@
       <c r="K613" t="s">
         <v>30</v>
       </c>
-      <c r="L613" s="16"/>
+      <c r="L613" s="21">
+        <f t="shared" si="10"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614">
@@ -23977,7 +25915,10 @@
       <c r="K614" t="s">
         <v>30</v>
       </c>
-      <c r="L614" s="16"/>
+      <c r="L614" s="21">
+        <f t="shared" si="10"/>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615">
@@ -24013,7 +25954,10 @@
       <c r="K615" t="s">
         <v>30</v>
       </c>
-      <c r="L615" s="16"/>
+      <c r="L615" s="21">
+        <f t="shared" si="10"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616">
@@ -24049,7 +25993,10 @@
       <c r="K616" t="s">
         <v>30</v>
       </c>
-      <c r="L616" s="16"/>
+      <c r="L616" s="21">
+        <f t="shared" si="10"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617">
@@ -24085,7 +26032,10 @@
       <c r="K617" t="s">
         <v>30</v>
       </c>
-      <c r="L617" s="16"/>
+      <c r="L617" s="21">
+        <f t="shared" si="10"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618">
@@ -24121,7 +26071,10 @@
       <c r="K618" t="s">
         <v>30</v>
       </c>
-      <c r="L618" s="16"/>
+      <c r="L618" s="21">
+        <f t="shared" si="10"/>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619">
@@ -24157,7 +26110,10 @@
       <c r="K619" t="s">
         <v>30</v>
       </c>
-      <c r="L619" s="16"/>
+      <c r="L619" s="21">
+        <f t="shared" si="10"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620">
@@ -24193,7 +26149,10 @@
       <c r="K620" t="s">
         <v>30</v>
       </c>
-      <c r="L620" s="16"/>
+      <c r="L620" s="21">
+        <f t="shared" si="10"/>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621">
@@ -24229,7 +26188,10 @@
       <c r="K621" t="s">
         <v>30</v>
       </c>
-      <c r="L621" s="16"/>
+      <c r="L621" s="21">
+        <f t="shared" si="10"/>
+        <v>0.89800000000000002</v>
+      </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622">
@@ -24265,7 +26227,10 @@
       <c r="K622" t="s">
         <v>30</v>
       </c>
-      <c r="L622" s="16"/>
+      <c r="L622" s="21">
+        <f t="shared" si="10"/>
+        <v>0.60399999999999998</v>
+      </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623">
@@ -24301,7 +26266,10 @@
       <c r="K623" t="s">
         <v>30</v>
       </c>
-      <c r="L623" s="16"/>
+      <c r="L623" s="21">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624">
@@ -24337,7 +26305,10 @@
       <c r="K624" t="s">
         <v>30</v>
       </c>
-      <c r="L624" s="16"/>
+      <c r="L624" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A625">
@@ -24373,7 +26344,10 @@
       <c r="K625" t="s">
         <v>30</v>
       </c>
-      <c r="L625" s="16"/>
+      <c r="L625" s="21">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A626">
@@ -24409,7 +26383,10 @@
       <c r="K626" t="s">
         <v>30</v>
       </c>
-      <c r="L626" s="16"/>
+      <c r="L626" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A627">
@@ -24445,7 +26422,10 @@
       <c r="K627" t="s">
         <v>30</v>
       </c>
-      <c r="L627" s="16"/>
+      <c r="L627" s="21">
+        <f t="shared" si="10"/>
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A628">
@@ -24481,7 +26461,10 @@
       <c r="K628" t="s">
         <v>30</v>
       </c>
-      <c r="L628" s="16"/>
+      <c r="L628" s="21">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A629">
@@ -24517,7 +26500,10 @@
       <c r="K629" t="s">
         <v>30</v>
       </c>
-      <c r="L629" s="16"/>
+      <c r="L629" s="21">
+        <f t="shared" si="10"/>
+        <v>0.622</v>
+      </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A630">
@@ -24553,7 +26539,10 @@
       <c r="K630" t="s">
         <v>30</v>
       </c>
-      <c r="L630" s="16"/>
+      <c r="L630" s="21">
+        <f t="shared" si="10"/>
+        <v>0.41499999999999998</v>
+      </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A631">
@@ -24589,7 +26578,10 @@
       <c r="K631" t="s">
         <v>30</v>
       </c>
-      <c r="L631" s="16"/>
+      <c r="L631" s="21">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632">
@@ -24625,7 +26617,10 @@
       <c r="K632" t="s">
         <v>30</v>
       </c>
-      <c r="L632" s="16"/>
+      <c r="L632" s="21">
+        <f t="shared" si="10"/>
+        <v>0.36099999999999999</v>
+      </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A633">
@@ -24661,7 +26656,10 @@
       <c r="K633" t="s">
         <v>30</v>
       </c>
-      <c r="L633" s="16"/>
+      <c r="L633" s="21">
+        <f t="shared" si="10"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A634">
@@ -24697,7 +26695,10 @@
       <c r="K634" t="s">
         <v>30</v>
       </c>
-      <c r="L634" s="16"/>
+      <c r="L634" s="21">
+        <f t="shared" si="10"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A635">
@@ -24733,7 +26734,10 @@
       <c r="K635" t="s">
         <v>30</v>
       </c>
-      <c r="L635" s="16"/>
+      <c r="L635" s="21">
+        <f t="shared" si="10"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636">
@@ -24769,7 +26773,10 @@
       <c r="K636" t="s">
         <v>30</v>
       </c>
-      <c r="L636" s="16"/>
+      <c r="L636" s="21">
+        <f t="shared" si="10"/>
+        <v>0.30199999999999999</v>
+      </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A637">
@@ -24805,7 +26812,10 @@
       <c r="K637" t="s">
         <v>30</v>
       </c>
-      <c r="L637" s="16"/>
+      <c r="L637" s="21">
+        <f t="shared" si="10"/>
+        <v>0.17799999999999999</v>
+      </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A638">
@@ -24841,7 +26851,10 @@
       <c r="K638" t="s">
         <v>30</v>
       </c>
-      <c r="L638" s="16"/>
+      <c r="L638" s="21">
+        <f t="shared" si="10"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A639">
@@ -24877,7 +26890,10 @@
       <c r="K639" t="s">
         <v>30</v>
       </c>
-      <c r="L639" s="16"/>
+      <c r="L639" s="21">
+        <f t="shared" si="10"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640">
@@ -24913,7 +26929,10 @@
       <c r="K640" t="s">
         <v>30</v>
       </c>
-      <c r="L640" s="16"/>
+      <c r="L640" s="21">
+        <f t="shared" si="10"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641">
@@ -24949,7 +26968,10 @@
       <c r="K641" t="s">
         <v>30</v>
       </c>
-      <c r="L641" s="16"/>
+      <c r="L641" s="21">
+        <f t="shared" si="10"/>
+        <v>0.84299999999999997</v>
+      </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642">
@@ -24985,7 +27007,10 @@
       <c r="K642" t="s">
         <v>30</v>
       </c>
-      <c r="L642" s="16"/>
+      <c r="L642" s="21">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643">
@@ -25021,7 +27046,10 @@
       <c r="K643" t="s">
         <v>30</v>
       </c>
-      <c r="L643" s="16"/>
+      <c r="L643" s="21">
+        <f t="shared" ref="L643:L706" si="11">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G643)</f>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644">
@@ -25057,7 +27085,10 @@
       <c r="K644" t="s">
         <v>30</v>
       </c>
-      <c r="L644" s="16"/>
+      <c r="L644" s="21">
+        <f t="shared" si="11"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645">
@@ -25093,7 +27124,10 @@
       <c r="K645" t="s">
         <v>30</v>
       </c>
-      <c r="L645" s="16"/>
+      <c r="L645" s="21">
+        <f t="shared" si="11"/>
+        <v>0.20699999999999999</v>
+      </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646">
@@ -25129,7 +27163,10 @@
       <c r="K646" t="s">
         <v>30</v>
       </c>
-      <c r="L646" s="16"/>
+      <c r="L646" s="21">
+        <f t="shared" si="11"/>
+        <v>0.123</v>
+      </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647">
@@ -25165,7 +27202,10 @@
       <c r="K647" t="s">
         <v>30</v>
       </c>
-      <c r="L647" s="16"/>
+      <c r="L647" s="21">
+        <f t="shared" si="11"/>
+        <v>0.70499999999999996</v>
+      </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648">
@@ -25201,7 +27241,10 @@
       <c r="K648" t="s">
         <v>30</v>
       </c>
-      <c r="L648" s="16"/>
+      <c r="L648" s="21">
+        <f t="shared" si="11"/>
+        <v>0.41099999999999998</v>
+      </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649">
@@ -25237,7 +27280,10 @@
       <c r="K649" t="s">
         <v>30</v>
       </c>
-      <c r="L649" s="16"/>
+      <c r="L649" s="21">
+        <f t="shared" si="11"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650">
@@ -25273,7 +27319,10 @@
       <c r="K650" t="s">
         <v>30</v>
       </c>
-      <c r="L650" s="16"/>
+      <c r="L650" s="21">
+        <f t="shared" si="11"/>
+        <v>0.21099999999999999</v>
+      </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651">
@@ -25309,7 +27358,10 @@
       <c r="K651" t="s">
         <v>30</v>
       </c>
-      <c r="L651" s="16"/>
+      <c r="L651" s="21">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
+      </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652">
@@ -25345,7 +27397,10 @@
       <c r="K652" t="s">
         <v>30</v>
       </c>
-      <c r="L652" s="16"/>
+      <c r="L652" s="21">
+        <f t="shared" si="11"/>
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653">
@@ -25381,7 +27436,10 @@
       <c r="K653" t="s">
         <v>30</v>
       </c>
-      <c r="L653" s="16"/>
+      <c r="L653" s="21">
+        <f t="shared" si="11"/>
+        <v>0.68799999999999994</v>
+      </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654">
@@ -25417,7 +27475,10 @@
       <c r="K654" t="s">
         <v>30</v>
       </c>
-      <c r="L654" s="16"/>
+      <c r="L654" s="21">
+        <f t="shared" si="11"/>
+        <v>0.52200000000000002</v>
+      </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655">
@@ -25453,7 +27514,10 @@
       <c r="K655" t="s">
         <v>30</v>
       </c>
-      <c r="L655" s="16"/>
+      <c r="L655" s="21">
+        <f t="shared" si="11"/>
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656">
@@ -25489,7 +27553,10 @@
       <c r="K656" t="s">
         <v>30</v>
       </c>
-      <c r="L656" s="16"/>
+      <c r="L656" s="21">
+        <f t="shared" si="11"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657">
@@ -25525,7 +27592,10 @@
       <c r="K657" t="s">
         <v>30</v>
       </c>
-      <c r="L657" s="16"/>
+      <c r="L657" s="21">
+        <f t="shared" si="11"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658">
@@ -25561,7 +27631,10 @@
       <c r="K658" t="s">
         <v>30</v>
       </c>
-      <c r="L658" s="16"/>
+      <c r="L658" s="21">
+        <f t="shared" si="11"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659">
@@ -25597,7 +27670,10 @@
       <c r="K659" t="s">
         <v>30</v>
       </c>
-      <c r="L659" s="16"/>
+      <c r="L659" s="21">
+        <f t="shared" si="11"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660">
@@ -25633,7 +27709,10 @@
       <c r="K660" t="s">
         <v>30</v>
       </c>
-      <c r="L660" s="16"/>
+      <c r="L660" s="21">
+        <f t="shared" si="11"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A661">
@@ -25669,7 +27748,10 @@
       <c r="K661" t="s">
         <v>30</v>
       </c>
-      <c r="L661" s="16"/>
+      <c r="L661" s="21">
+        <f t="shared" si="11"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662">
@@ -25705,7 +27787,10 @@
       <c r="K662" t="s">
         <v>35</v>
       </c>
-      <c r="L662" s="16"/>
+      <c r="L662" s="21">
+        <f t="shared" si="11"/>
+        <v>0.21199999999999999</v>
+      </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663">
@@ -25741,7 +27826,10 @@
       <c r="K663" t="s">
         <v>54</v>
       </c>
-      <c r="L663" s="16"/>
+      <c r="L663" s="21">
+        <f t="shared" si="11"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664">
@@ -25777,7 +27865,10 @@
       <c r="K664" t="s">
         <v>54</v>
       </c>
-      <c r="L664" s="16"/>
+      <c r="L664" s="21">
+        <f t="shared" si="11"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A665">
@@ -25813,7 +27904,10 @@
       <c r="K665" t="s">
         <v>54</v>
       </c>
-      <c r="L665" s="16"/>
+      <c r="L665" s="21">
+        <f t="shared" si="11"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666">
@@ -25849,7 +27943,10 @@
       <c r="K666" t="s">
         <v>35</v>
       </c>
-      <c r="L666" s="16"/>
+      <c r="L666" s="21">
+        <f t="shared" si="11"/>
+        <v>0.997</v>
+      </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A667">
@@ -25885,7 +27982,10 @@
       <c r="K667" t="s">
         <v>35</v>
       </c>
-      <c r="L667" s="16"/>
+      <c r="L667" s="21">
+        <f t="shared" si="11"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668">
@@ -25921,7 +28021,10 @@
       <c r="K668" t="s">
         <v>30</v>
       </c>
-      <c r="L668" s="16"/>
+      <c r="L668" s="21">
+        <f t="shared" si="11"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669">
@@ -25957,7 +28060,10 @@
       <c r="K669" t="s">
         <v>35</v>
       </c>
-      <c r="L669" s="16"/>
+      <c r="L669" s="21">
+        <f t="shared" si="11"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670">
@@ -25993,7 +28099,10 @@
       <c r="K670" t="s">
         <v>30</v>
       </c>
-      <c r="L670" s="16"/>
+      <c r="L670" s="21">
+        <f t="shared" si="11"/>
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671">
@@ -26029,7 +28138,10 @@
       <c r="K671" t="s">
         <v>30</v>
       </c>
-      <c r="L671" s="16"/>
+      <c r="L671" s="21">
+        <f t="shared" si="11"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672">
@@ -26065,7 +28177,10 @@
       <c r="K672" t="s">
         <v>54</v>
       </c>
-      <c r="L672" s="16"/>
+      <c r="L672" s="21">
+        <f t="shared" si="11"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673">
@@ -26101,7 +28216,10 @@
       <c r="K673" t="s">
         <v>30</v>
       </c>
-      <c r="L673" s="16"/>
+      <c r="L673" s="21">
+        <f t="shared" si="11"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A674">
@@ -26137,7 +28255,10 @@
       <c r="K674" t="s">
         <v>35</v>
       </c>
-      <c r="L674" s="16"/>
+      <c r="L674" s="21">
+        <f t="shared" si="11"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A675">
@@ -26173,7 +28294,10 @@
       <c r="K675" t="s">
         <v>54</v>
       </c>
-      <c r="L675" s="16"/>
+      <c r="L675" s="21">
+        <f t="shared" si="11"/>
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A676">
@@ -26209,7 +28333,10 @@
       <c r="K676" t="s">
         <v>54</v>
       </c>
-      <c r="L676" s="16"/>
+      <c r="L676" s="21">
+        <f t="shared" si="11"/>
+        <v>0.159</v>
+      </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A677">
@@ -26245,7 +28372,10 @@
       <c r="K677" t="s">
         <v>30</v>
       </c>
-      <c r="L677" s="16"/>
+      <c r="L677" s="21">
+        <f t="shared" si="11"/>
+        <v>0.156</v>
+      </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A678">
@@ -26281,7 +28411,10 @@
       <c r="K678" t="s">
         <v>54</v>
       </c>
-      <c r="L678" s="16"/>
+      <c r="L678" s="21">
+        <f t="shared" si="11"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679">
@@ -26317,7 +28450,10 @@
       <c r="K679" t="s">
         <v>54</v>
       </c>
-      <c r="L679" s="16"/>
+      <c r="L679" s="21">
+        <f t="shared" si="11"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680">
@@ -26353,7 +28489,10 @@
       <c r="K680" t="s">
         <v>35</v>
       </c>
-      <c r="L680" s="16"/>
+      <c r="L680" s="21">
+        <f t="shared" si="11"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A681">
@@ -26389,7 +28528,10 @@
       <c r="K681" t="s">
         <v>30</v>
       </c>
-      <c r="L681" s="16"/>
+      <c r="L681" s="21">
+        <f t="shared" si="11"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A682">
@@ -26425,7 +28567,10 @@
       <c r="K682" t="s">
         <v>30</v>
       </c>
-      <c r="L682" s="16"/>
+      <c r="L682" s="21">
+        <f t="shared" si="11"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683">
@@ -26461,7 +28606,10 @@
       <c r="K683" t="s">
         <v>35</v>
       </c>
-      <c r="L683" s="16"/>
+      <c r="L683" s="21">
+        <f t="shared" si="11"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A684">
@@ -26497,7 +28645,10 @@
       <c r="K684" t="s">
         <v>35</v>
       </c>
-      <c r="L684" s="16"/>
+      <c r="L684" s="21">
+        <f t="shared" si="11"/>
+        <v>0.34699999999999998</v>
+      </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A685">
@@ -26533,7 +28684,10 @@
       <c r="K685" t="s">
         <v>35</v>
       </c>
-      <c r="L685" s="16"/>
+      <c r="L685" s="21">
+        <f t="shared" si="11"/>
+        <v>0.121</v>
+      </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686">
@@ -26569,7 +28723,10 @@
       <c r="K686" t="s">
         <v>35</v>
       </c>
-      <c r="L686" s="16"/>
+      <c r="L686" s="21">
+        <f t="shared" si="11"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687">
@@ -26605,7 +28762,10 @@
       <c r="K687" t="s">
         <v>35</v>
       </c>
-      <c r="L687" s="16"/>
+      <c r="L687" s="21">
+        <f t="shared" si="11"/>
+        <v>0.374</v>
+      </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A688">
@@ -26641,7 +28801,10 @@
       <c r="K688" t="s">
         <v>54</v>
       </c>
-      <c r="L688" s="16"/>
+      <c r="L688" s="21">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689">
@@ -26677,7 +28840,10 @@
       <c r="K689" t="s">
         <v>30</v>
       </c>
-      <c r="L689" s="16"/>
+      <c r="L689" s="21">
+        <f t="shared" si="11"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690">
@@ -26713,7 +28879,10 @@
       <c r="K690" t="s">
         <v>35</v>
       </c>
-      <c r="L690" s="16"/>
+      <c r="L690" s="21">
+        <f t="shared" si="11"/>
+        <v>0.37</v>
+      </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691">
@@ -26749,7 +28918,10 @@
       <c r="K691" t="s">
         <v>35</v>
       </c>
-      <c r="L691" s="16"/>
+      <c r="L691" s="21">
+        <f t="shared" si="11"/>
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692">
@@ -26785,7 +28957,10 @@
       <c r="K692" t="s">
         <v>35</v>
       </c>
-      <c r="L692" s="16"/>
+      <c r="L692" s="21">
+        <f t="shared" si="11"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693">
@@ -26821,7 +28996,10 @@
       <c r="K693" t="s">
         <v>35</v>
       </c>
-      <c r="L693" s="16"/>
+      <c r="L693" s="21">
+        <f t="shared" si="11"/>
+        <v>0.22800000000000001</v>
+      </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694">
@@ -26857,7 +29035,10 @@
       <c r="K694" t="s">
         <v>35</v>
       </c>
-      <c r="L694" s="16"/>
+      <c r="L694" s="21">
+        <f t="shared" si="11"/>
+        <v>0.185</v>
+      </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695">
@@ -26893,7 +29074,10 @@
       <c r="K695" t="s">
         <v>30</v>
       </c>
-      <c r="L695" s="16"/>
+      <c r="L695" s="21">
+        <f t="shared" si="11"/>
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696">
@@ -26929,7 +29113,10 @@
       <c r="K696" t="s">
         <v>54</v>
       </c>
-      <c r="L696" s="16"/>
+      <c r="L696" s="21">
+        <f t="shared" si="11"/>
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697">
@@ -26965,7 +29152,10 @@
       <c r="K697" t="s">
         <v>35</v>
       </c>
-      <c r="L697" s="16"/>
+      <c r="L697" s="21">
+        <f t="shared" si="11"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A698">
@@ -27001,7 +29191,10 @@
       <c r="K698" t="s">
         <v>35</v>
       </c>
-      <c r="L698" s="16"/>
+      <c r="L698" s="21">
+        <f t="shared" si="11"/>
+        <v>0.34499999999999997</v>
+      </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699">
@@ -27037,7 +29230,10 @@
       <c r="K699" t="s">
         <v>35</v>
       </c>
-      <c r="L699" s="16"/>
+      <c r="L699" s="21">
+        <f t="shared" si="11"/>
+        <v>0.318</v>
+      </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700">
@@ -27073,7 +29269,10 @@
       <c r="K700" t="s">
         <v>35</v>
       </c>
-      <c r="L700" s="16"/>
+      <c r="L700" s="21">
+        <f t="shared" si="11"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701">
@@ -27109,7 +29308,10 @@
       <c r="K701" t="s">
         <v>35</v>
       </c>
-      <c r="L701" s="16"/>
+      <c r="L701" s="21">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702">
@@ -27145,7 +29347,10 @@
       <c r="K702" t="s">
         <v>30</v>
       </c>
-      <c r="L702" s="16"/>
+      <c r="L702" s="21">
+        <f t="shared" si="11"/>
+        <v>0.40899999999999997</v>
+      </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703">
@@ -27181,7 +29386,10 @@
       <c r="K703" t="s">
         <v>35</v>
       </c>
-      <c r="L703" s="16"/>
+      <c r="L703" s="21">
+        <f t="shared" si="11"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A704">
@@ -27217,7 +29425,10 @@
       <c r="K704" t="s">
         <v>35</v>
       </c>
-      <c r="L704" s="16"/>
+      <c r="L704" s="21">
+        <f t="shared" si="11"/>
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A705">
@@ -27253,7 +29464,10 @@
       <c r="K705" t="s">
         <v>35</v>
       </c>
-      <c r="L705" s="16"/>
+      <c r="L705" s="21">
+        <f t="shared" si="11"/>
+        <v>0.18099999999999999</v>
+      </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A706">
@@ -27289,7 +29503,10 @@
       <c r="K706" t="s">
         <v>35</v>
       </c>
-      <c r="L706" s="16"/>
+      <c r="L706" s="21">
+        <f t="shared" si="11"/>
+        <v>0.156</v>
+      </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A707">
@@ -27325,7 +29542,10 @@
       <c r="K707" t="s">
         <v>35</v>
       </c>
-      <c r="L707" s="16"/>
+      <c r="L707" s="21">
+        <f t="shared" ref="L707:L710" si="12">_xlfn.PERCENTRANK.EXC($G$2:$G$710, G707)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A708">
@@ -27361,7 +29581,10 @@
       <c r="K708" t="s">
         <v>35</v>
       </c>
-      <c r="L708" s="16"/>
+      <c r="L708" s="21">
+        <f t="shared" si="12"/>
+        <v>0.23599999999999999</v>
+      </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A709">
@@ -27397,7 +29620,10 @@
       <c r="K709" t="s">
         <v>35</v>
       </c>
-      <c r="L709" s="16"/>
+      <c r="L709" s="21">
+        <f t="shared" si="12"/>
+        <v>0.183</v>
+      </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A710">
@@ -27433,7 +29659,10 @@
       <c r="K710" t="s">
         <v>35</v>
       </c>
-      <c r="L710" s="16"/>
+      <c r="L710" s="21">
+        <f t="shared" si="12"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L710" xr:uid="{47DD142D-3061-4CE9-9EE6-7A662BB8F9AE}"/>
